--- a/pareto/case_studies/strategic_small_case_study.xlsx
+++ b/pareto/case_studies/strategic_small_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmira\Documents\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA260D73-DF13-4E56-BAAD-F56AE082EB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFB4A79-A492-4B61-95E7-53729BE7D8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="62" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -81,20 +81,21 @@
     <sheet name="PipelineCapacityIncrements" sheetId="100" r:id="rId66"/>
     <sheet name="PipelineDiameterValues" sheetId="93" r:id="rId67"/>
     <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId68"/>
-    <sheet name="DesalinationTechnologies" sheetId="112" r:id="rId69"/>
-    <sheet name="DesalinationSites" sheetId="114" r:id="rId70"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="113" r:id="rId71"/>
-    <sheet name="Hydraulics" sheetId="95" r:id="rId72"/>
-    <sheet name="Economics" sheetId="99" r:id="rId73"/>
-    <sheet name="PadWaterQuality" sheetId="104" r:id="rId74"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId75"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId76"/>
+    <sheet name="RemovalEfficiency" sheetId="116" r:id="rId69"/>
+    <sheet name="DesalinationTechnologies" sheetId="112" r:id="rId70"/>
+    <sheet name="DesalinationSites" sheetId="114" r:id="rId71"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="113" r:id="rId72"/>
+    <sheet name="Hydraulics" sheetId="95" r:id="rId73"/>
+    <sheet name="Economics" sheetId="99" r:id="rId74"/>
+    <sheet name="PadWaterQuality" sheetId="104" r:id="rId75"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId76"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId77"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="63" hidden="1">#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="63">PipelineExpansionDistance!$O$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,9 +103,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -113,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3399" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="288">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -974,6 +973,9 @@
   </si>
   <si>
     <t>Table with indication if the treatment technology is for desalination</t>
+  </si>
+  <si>
+    <t>Table of Removal Efficiency [%]</t>
   </si>
 </sst>
 </file>
@@ -2305,17 +2307,17 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.26171875" customWidth="1"/>
+    <col min="10" max="10" width="4.41796875" customWidth="1"/>
+    <col min="11" max="11" width="9.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -2327,7 +2329,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="16"/>
       <c r="C3" s="17" t="s">
         <v>7</v>
@@ -2341,7 +2343,7 @@
       <c r="J3" s="18"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="16"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -2353,7 +2355,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="16"/>
       <c r="C5" s="18" t="s">
         <v>13</v>
@@ -2367,7 +2369,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="16"/>
       <c r="C6" s="18" t="s">
         <v>11</v>
@@ -2381,7 +2383,7 @@
       <c r="J6" s="18"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="16"/>
       <c r="C7" s="18" t="s">
         <v>8</v>
@@ -2395,7 +2397,7 @@
       <c r="J7" s="18"/>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="16"/>
       <c r="C8" s="18" t="s">
         <v>9</v>
@@ -2409,7 +2411,7 @@
       <c r="J8" s="18"/>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="16"/>
       <c r="C9" s="18" t="s">
         <v>10</v>
@@ -2423,7 +2425,7 @@
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="16"/>
       <c r="C10" s="18" t="s">
         <v>49</v>
@@ -2437,7 +2439,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="16"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -2449,7 +2451,7 @@
       <c r="J11" s="18"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="16"/>
       <c r="C12" s="18" t="s">
         <v>14</v>
@@ -2463,7 +2465,7 @@
       <c r="J12" s="18"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="16"/>
       <c r="C13" s="18" t="s">
         <v>12</v>
@@ -2477,7 +2479,7 @@
       <c r="J13" s="18"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="16"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -2489,7 +2491,7 @@
       <c r="J14" s="18"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="16"/>
       <c r="C15" s="18" t="s">
         <v>15</v>
@@ -2503,7 +2505,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="16"/>
       <c r="C16" s="18" t="s">
         <v>16</v>
@@ -2517,7 +2519,7 @@
       <c r="J16" s="18"/>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="16"/>
       <c r="C17" s="18" t="s">
         <v>17</v>
@@ -2531,7 +2533,7 @@
       <c r="J17" s="18"/>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="16"/>
       <c r="C18" s="18" t="s">
         <v>18</v>
@@ -2545,7 +2547,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="16"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -2557,7 +2559,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="16"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -2569,7 +2571,7 @@
       <c r="J20" s="18"/>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="16"/>
       <c r="C21" s="20" t="s">
         <v>19</v>
@@ -2585,7 +2587,7 @@
       <c r="J21" s="18"/>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="16"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -2597,7 +2599,7 @@
       <c r="J22" s="18"/>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="16"/>
       <c r="C23" s="21" t="s">
         <v>21</v>
@@ -2613,7 +2615,7 @@
       <c r="J23" s="18"/>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="16"/>
       <c r="C24" s="21" t="s">
         <v>22</v>
@@ -2629,7 +2631,7 @@
       <c r="J24" s="18"/>
       <c r="K24" s="19"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="16"/>
       <c r="C25" s="21" t="s">
         <v>23</v>
@@ -2645,7 +2647,7 @@
       <c r="J25" s="18"/>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="16"/>
       <c r="C26" s="21" t="s">
         <v>27</v>
@@ -2661,7 +2663,7 @@
       <c r="J26" s="18"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="16"/>
       <c r="C27" s="21" t="s">
         <v>29</v>
@@ -2677,7 +2679,7 @@
       <c r="J27" s="18"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="16"/>
       <c r="C28" s="21" t="s">
         <v>31</v>
@@ -2693,7 +2695,7 @@
       <c r="J28" s="18"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="16"/>
       <c r="C29" s="21" t="s">
         <v>32</v>
@@ -2709,7 +2711,7 @@
       <c r="J29" s="18"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="16"/>
       <c r="C30" s="21" t="s">
         <v>35</v>
@@ -2725,7 +2727,7 @@
       <c r="J30" s="18"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="16"/>
       <c r="C31" s="21" t="s">
         <v>37</v>
@@ -2744,7 +2746,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="16"/>
       <c r="C32" s="21" t="s">
         <v>40</v>
@@ -2760,7 +2762,7 @@
       <c r="J32" s="18"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="16"/>
       <c r="C33" s="21" t="s">
         <v>39</v>
@@ -2776,7 +2778,7 @@
       <c r="J33" s="18"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="16"/>
       <c r="C34" s="21" t="s">
         <v>43</v>
@@ -2792,7 +2794,7 @@
       <c r="J34" s="18"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="16"/>
       <c r="C35" s="21" t="s">
         <v>45</v>
@@ -2808,7 +2810,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="16"/>
       <c r="C36" s="21" t="s">
         <v>46</v>
@@ -2824,7 +2826,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="19"/>
     </row>
-    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B37" s="22"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
@@ -2867,30 +2869,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>128</v>
       </c>
@@ -2913,7 +2915,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2933,7 +2935,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2953,7 +2955,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2973,7 +2975,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2993,7 +2995,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3013,7 +3015,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3049,30 +3051,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>278</v>
       </c>
@@ -3080,10 +3082,10 @@
       <c r="O3" s="74"/>
       <c r="P3" s="74"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="81"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="81"/>
     </row>
   </sheetData>
@@ -3101,30 +3103,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="81"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3145,7 +3147,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3165,7 +3167,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3185,7 +3187,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3205,7 +3207,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3225,7 +3227,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3245,7 +3247,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3280,30 +3282,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>80</v>
       </c>
@@ -3326,7 +3328,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
@@ -3349,7 +3351,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>82</v>
       </c>
@@ -3372,7 +3374,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>83</v>
       </c>
@@ -3395,7 +3397,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>84</v>
       </c>
@@ -3418,7 +3420,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>85</v>
       </c>
@@ -3441,7 +3443,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>86</v>
       </c>
@@ -3464,107 +3466,107 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="81"/>
     </row>
   </sheetData>
@@ -3583,30 +3585,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="81"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3642,25 +3644,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>89</v>
       </c>
@@ -3680,25 +3682,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>283</v>
       </c>
@@ -3721,7 +3723,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>284</v>
       </c>
@@ -3744,7 +3746,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="81"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3765,7 +3767,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3800,30 +3802,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="81"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3844,7 +3846,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="81"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3865,7 +3867,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3900,18 +3902,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.68359375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>209</v>
       </c>
@@ -4000,7 +4002,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>112</v>
       </c>
@@ -4035,7 +4037,7 @@
       <c r="AB3" s="8"/>
       <c r="AC3" s="30"/>
     </row>
-    <row r="4" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
@@ -4070,7 +4072,7 @@
       <c r="AB4" s="8"/>
       <c r="AC4" s="30"/>
     </row>
-    <row r="5" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
@@ -4105,7 +4107,7 @@
       <c r="AB5" s="8"/>
       <c r="AC5" s="30"/>
     </row>
-    <row r="6" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>104</v>
       </c>
@@ -4140,7 +4142,7 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="30"/>
     </row>
-    <row r="7" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>105</v>
       </c>
@@ -4177,7 +4179,7 @@
       <c r="AB7" s="8"/>
       <c r="AC7" s="30"/>
     </row>
-    <row r="8" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>106</v>
       </c>
@@ -4212,7 +4214,7 @@
       <c r="AB8" s="8"/>
       <c r="AC8" s="30"/>
     </row>
-    <row r="9" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>107</v>
       </c>
@@ -4247,7 +4249,7 @@
       <c r="AB9" s="8"/>
       <c r="AC9" s="30"/>
     </row>
-    <row r="10" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>108</v>
       </c>
@@ -4282,7 +4284,7 @@
       <c r="AB10" s="8"/>
       <c r="AC10" s="30"/>
     </row>
-    <row r="11" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>109</v>
       </c>
@@ -4317,7 +4319,7 @@
       <c r="AB11" s="8"/>
       <c r="AC11" s="30"/>
     </row>
-    <row r="12" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
         <v>110</v>
       </c>
@@ -4352,7 +4354,7 @@
       <c r="AB12" s="8"/>
       <c r="AC12" s="30"/>
     </row>
-    <row r="13" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>111</v>
       </c>
@@ -4387,7 +4389,7 @@
       <c r="AB13" s="8"/>
       <c r="AC13" s="30"/>
     </row>
-    <row r="14" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
         <v>113</v>
       </c>
@@ -4422,7 +4424,7 @@
       </c>
       <c r="AC14" s="30"/>
     </row>
-    <row r="15" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>114</v>
       </c>
@@ -4457,7 +4459,7 @@
       </c>
       <c r="AC15" s="30"/>
     </row>
-    <row r="16" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27" t="s">
         <v>115</v>
       </c>
@@ -4492,7 +4494,7 @@
       </c>
       <c r="AC16" s="30"/>
     </row>
-    <row r="17" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="28" t="s">
         <v>116</v>
       </c>
@@ -4543,18 +4545,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.41796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>211</v>
       </c>
@@ -4643,7 +4645,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
@@ -4678,7 +4680,7 @@
       <c r="AB3" s="31"/>
       <c r="AC3" s="33"/>
     </row>
-    <row r="4" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>117</v>
       </c>
@@ -4713,7 +4715,7 @@
       <c r="AB4" s="31"/>
       <c r="AC4" s="33"/>
     </row>
-    <row r="5" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>118</v>
       </c>
@@ -4748,7 +4750,7 @@
       <c r="AB5" s="31"/>
       <c r="AC5" s="33"/>
     </row>
-    <row r="6" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>119</v>
       </c>
@@ -4797,61 +4799,61 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.26171875" customWidth="1"/>
+    <col min="10" max="10" width="4.41796875" customWidth="1"/>
+    <col min="11" max="11" width="9.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="39"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="40"/>
       <c r="F21" s="40"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="41"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="41"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="41"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="41"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="41"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="41"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="41"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="41"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="41"/>
       <c r="M31" s="25"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="41"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="41"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="41"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="41"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="41"/>
     </row>
   </sheetData>
@@ -4869,18 +4871,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>211</v>
       </c>
@@ -4897,7 +4899,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
@@ -4906,7 +4908,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>117</v>
       </c>
@@ -4915,7 +4917,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="30"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>118</v>
       </c>
@@ -4924,7 +4926,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="30"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>119</v>
       </c>
@@ -4948,18 +4950,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>216</v>
       </c>
@@ -5048,7 +5050,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>130</v>
       </c>
@@ -5083,7 +5085,7 @@
       <c r="AB3" s="8"/>
       <c r="AC3" s="30"/>
     </row>
-    <row r="4" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>80</v>
       </c>
@@ -5122,7 +5124,7 @@
       <c r="AB4" s="8"/>
       <c r="AC4" s="30"/>
     </row>
-    <row r="5" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>81</v>
       </c>
@@ -5159,7 +5161,7 @@
       <c r="AB5" s="8"/>
       <c r="AC5" s="30"/>
     </row>
-    <row r="6" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>82</v>
       </c>
@@ -5196,7 +5198,7 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="30"/>
     </row>
-    <row r="7" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>83</v>
       </c>
@@ -5233,7 +5235,7 @@
       <c r="AB7" s="8"/>
       <c r="AC7" s="30"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>84</v>
       </c>
@@ -5270,7 +5272,7 @@
       <c r="AB8" s="8"/>
       <c r="AC8" s="30"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>85</v>
       </c>
@@ -5309,7 +5311,7 @@
       <c r="AB9" s="8"/>
       <c r="AC9" s="30"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>86</v>
       </c>
@@ -5346,7 +5348,7 @@
       <c r="AB10" s="8"/>
       <c r="AC10" s="30"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>131</v>
       </c>
@@ -5385,7 +5387,7 @@
       <c r="AB11" s="8"/>
       <c r="AC11" s="30"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
         <v>132</v>
       </c>
@@ -5420,7 +5422,7 @@
       <c r="AB12" s="8"/>
       <c r="AC12" s="30"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>133</v>
       </c>
@@ -5457,7 +5459,7 @@
       <c r="AB13" s="8"/>
       <c r="AC13" s="30"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
         <v>134</v>
       </c>
@@ -5492,7 +5494,7 @@
       <c r="AB14" s="8"/>
       <c r="AC14" s="30"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>135</v>
       </c>
@@ -5529,7 +5531,7 @@
       <c r="AB15" s="8"/>
       <c r="AC15" s="30"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27" t="s">
         <v>136</v>
       </c>
@@ -5568,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="27" t="s">
         <v>137</v>
       </c>
@@ -5605,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27" t="s">
         <v>138</v>
       </c>
@@ -5642,7 +5644,7 @@
       <c r="AB18" s="8"/>
       <c r="AC18" s="30"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27" t="s">
         <v>139</v>
       </c>
@@ -5677,7 +5679,7 @@
       <c r="AB19" s="8"/>
       <c r="AC19" s="30"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27" t="s">
         <v>140</v>
       </c>
@@ -5712,7 +5714,7 @@
       <c r="AB20" s="8"/>
       <c r="AC20" s="30"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="27" t="s">
         <v>141</v>
       </c>
@@ -5749,7 +5751,7 @@
       <c r="AB21" s="8"/>
       <c r="AC21" s="30"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="27" t="s">
         <v>142</v>
       </c>
@@ -5786,7 +5788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="27" t="s">
         <v>143</v>
       </c>
@@ -5823,7 +5825,7 @@
       <c r="AB23" s="8"/>
       <c r="AC23" s="30"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="27" t="s">
         <v>144</v>
       </c>
@@ -5862,7 +5864,7 @@
       <c r="AB24" s="8"/>
       <c r="AC24" s="30"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="27" t="s">
         <v>145</v>
       </c>
@@ -5899,7 +5901,7 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="30"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="27" t="s">
         <v>146</v>
       </c>
@@ -5936,7 +5938,7 @@
       <c r="AB26" s="8"/>
       <c r="AC26" s="30"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="27" t="s">
         <v>147</v>
       </c>
@@ -5973,7 +5975,7 @@
       <c r="AB27" s="8"/>
       <c r="AC27" s="30"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="27" t="s">
         <v>148</v>
       </c>
@@ -6010,7 +6012,7 @@
       </c>
       <c r="AC28" s="30"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="27" t="s">
         <v>149</v>
       </c>
@@ -6045,7 +6047,7 @@
       <c r="AB29" s="8"/>
       <c r="AC29" s="30"/>
     </row>
-    <row r="30" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="28" t="s">
         <v>150</v>
       </c>
@@ -6100,18 +6102,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.15625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>216</v>
       </c>
@@ -6128,7 +6130,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>130</v>
       </c>
@@ -6137,7 +6139,7 @@
       <c r="D3" s="44"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>80</v>
       </c>
@@ -6146,7 +6148,7 @@
       <c r="D4" s="44"/>
       <c r="E4" s="30"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>81</v>
       </c>
@@ -6155,7 +6157,7 @@
       <c r="D5" s="44"/>
       <c r="E5" s="30"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>82</v>
       </c>
@@ -6164,7 +6166,7 @@
       <c r="D6" s="44"/>
       <c r="E6" s="30"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>83</v>
       </c>
@@ -6173,7 +6175,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="30"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>84</v>
       </c>
@@ -6182,7 +6184,7 @@
       <c r="D8" s="44"/>
       <c r="E8" s="30"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>85</v>
       </c>
@@ -6191,7 +6193,7 @@
       <c r="D9" s="44"/>
       <c r="E9" s="30"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>86</v>
       </c>
@@ -6200,7 +6202,7 @@
       <c r="D10" s="44"/>
       <c r="E10" s="30"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>131</v>
       </c>
@@ -6209,7 +6211,7 @@
       <c r="D11" s="44"/>
       <c r="E11" s="30"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
         <v>132</v>
       </c>
@@ -6218,7 +6220,7 @@
       <c r="D12" s="44"/>
       <c r="E12" s="30"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>133</v>
       </c>
@@ -6227,7 +6229,7 @@
       <c r="D13" s="44"/>
       <c r="E13" s="30"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
         <v>134</v>
       </c>
@@ -6236,7 +6238,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="30"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>135</v>
       </c>
@@ -6245,7 +6247,7 @@
       <c r="D15" s="44"/>
       <c r="E15" s="30"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27" t="s">
         <v>136</v>
       </c>
@@ -6254,7 +6256,7 @@
       <c r="D16" s="44"/>
       <c r="E16" s="30"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="27" t="s">
         <v>137</v>
       </c>
@@ -6263,7 +6265,7 @@
       <c r="D17" s="44"/>
       <c r="E17" s="30"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27" t="s">
         <v>138</v>
       </c>
@@ -6272,7 +6274,7 @@
       <c r="D18" s="44"/>
       <c r="E18" s="30"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27" t="s">
         <v>139</v>
       </c>
@@ -6281,7 +6283,7 @@
       <c r="D19" s="44"/>
       <c r="E19" s="30"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27" t="s">
         <v>140</v>
       </c>
@@ -6290,7 +6292,7 @@
       <c r="D20" s="44"/>
       <c r="E20" s="30"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="27" t="s">
         <v>141</v>
       </c>
@@ -6299,7 +6301,7 @@
       <c r="D21" s="44"/>
       <c r="E21" s="30"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="27" t="s">
         <v>142</v>
       </c>
@@ -6308,7 +6310,7 @@
       <c r="D22" s="44"/>
       <c r="E22" s="30"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="27" t="s">
         <v>143</v>
       </c>
@@ -6317,7 +6319,7 @@
       <c r="D23" s="44"/>
       <c r="E23" s="30"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="27" t="s">
         <v>144</v>
       </c>
@@ -6326,7 +6328,7 @@
       <c r="D24" s="44"/>
       <c r="E24" s="30"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="27" t="s">
         <v>145</v>
       </c>
@@ -6335,7 +6337,7 @@
       <c r="D25" s="44"/>
       <c r="E25" s="30"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="27" t="s">
         <v>146</v>
       </c>
@@ -6344,7 +6346,7 @@
       <c r="D26" s="44"/>
       <c r="E26" s="30"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="27" t="s">
         <v>147</v>
       </c>
@@ -6353,7 +6355,7 @@
       <c r="D27" s="44"/>
       <c r="E27" s="30"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="27" t="s">
         <v>148</v>
       </c>
@@ -6362,7 +6364,7 @@
       <c r="D28" s="44"/>
       <c r="E28" s="30"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="27" t="s">
         <v>149</v>
       </c>
@@ -6371,7 +6373,7 @@
       <c r="D29" s="44"/>
       <c r="E29" s="30"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="28" t="s">
         <v>150</v>
       </c>
@@ -6395,18 +6397,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.83984375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>216</v>
       </c>
@@ -6420,7 +6422,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>130</v>
       </c>
@@ -6430,7 +6432,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>80</v>
       </c>
@@ -6438,7 +6440,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>81</v>
       </c>
@@ -6446,7 +6448,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>82</v>
       </c>
@@ -6456,7 +6458,7 @@
       </c>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>83</v>
       </c>
@@ -6464,7 +6466,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>84</v>
       </c>
@@ -6472,7 +6474,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>85</v>
       </c>
@@ -6480,7 +6482,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="30"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>86</v>
       </c>
@@ -6488,7 +6490,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="30"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>131</v>
       </c>
@@ -6496,7 +6498,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
         <v>132</v>
       </c>
@@ -6504,7 +6506,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="30"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>133</v>
       </c>
@@ -6512,7 +6514,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
         <v>134</v>
       </c>
@@ -6520,7 +6522,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>135</v>
       </c>
@@ -6528,7 +6530,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27" t="s">
         <v>136</v>
       </c>
@@ -6536,7 +6538,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="30"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="27" t="s">
         <v>137</v>
       </c>
@@ -6544,7 +6546,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="30"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27" t="s">
         <v>138</v>
       </c>
@@ -6552,7 +6554,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="30"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27" t="s">
         <v>139</v>
       </c>
@@ -6562,7 +6564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27" t="s">
         <v>140</v>
       </c>
@@ -6572,7 +6574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="27" t="s">
         <v>141</v>
       </c>
@@ -6580,7 +6582,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="30"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="27" t="s">
         <v>142</v>
       </c>
@@ -6588,7 +6590,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="30"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="27" t="s">
         <v>143</v>
       </c>
@@ -6596,7 +6598,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="30"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="27" t="s">
         <v>144</v>
       </c>
@@ -6604,7 +6606,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="30"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="27" t="s">
         <v>145</v>
       </c>
@@ -6612,7 +6614,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="30"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="27" t="s">
         <v>146</v>
       </c>
@@ -6620,7 +6622,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="30"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="27" t="s">
         <v>147</v>
       </c>
@@ -6628,7 +6630,7 @@
       <c r="C27" s="8"/>
       <c r="D27" s="30"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="27" t="s">
         <v>148</v>
       </c>
@@ -6636,7 +6638,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="30"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="27" t="s">
         <v>149</v>
       </c>
@@ -6644,7 +6646,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="30"/>
     </row>
-    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="28" t="s">
         <v>150</v>
       </c>
@@ -6668,18 +6670,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.68359375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>216</v>
       </c>
@@ -6690,56 +6692,56 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>130</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="30"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="30"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="30"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="30"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>83</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="30"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="30"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="30"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>86</v>
       </c>
@@ -6748,84 +6750,84 @@
       </c>
       <c r="C10" s="30"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>131</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="30"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
         <v>132</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="30"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="30"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
         <v>134</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="30"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>135</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="30"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27" t="s">
         <v>136</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="30"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="27" t="s">
         <v>137</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="30"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27" t="s">
         <v>138</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="30"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27" t="s">
         <v>139</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="30"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27" t="s">
         <v>140</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="30"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="27" t="s">
         <v>141</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="30"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="27" t="s">
         <v>142</v>
       </c>
@@ -6834,56 +6836,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="27" t="s">
         <v>143</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="30"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="27" t="s">
         <v>144</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="30"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="27" t="s">
         <v>145</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="30"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="27" t="s">
         <v>146</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="30"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="27" t="s">
         <v>147</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="30"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="27" t="s">
         <v>148</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="30"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="27" t="s">
         <v>149</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="30"/>
     </row>
-    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="28" t="s">
         <v>150</v>
       </c>
@@ -6906,19 +6908,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.578125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.15625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>216</v>
       </c>
@@ -6929,7 +6931,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>130</v>
       </c>
@@ -6951,18 +6953,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="14.68359375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>214</v>
       </c>
@@ -6970,13 +6972,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="33"/>
     </row>
-    <row r="4" spans="1:2" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="7" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>285</v>
       </c>
@@ -6997,18 +6999,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="20.83984375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>213</v>
       </c>
@@ -7025,7 +7027,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>66</v>
       </c>
@@ -7034,7 +7036,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>67</v>
       </c>
@@ -7043,7 +7045,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="30"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>122</v>
       </c>
@@ -7052,7 +7054,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="30"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>123</v>
       </c>
@@ -7061,7 +7063,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="30"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>124</v>
       </c>
@@ -7070,7 +7072,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="30"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>125</v>
       </c>
@@ -7079,7 +7081,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="30"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>126</v>
       </c>
@@ -7088,7 +7090,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="30"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="28" t="s">
         <v>127</v>
       </c>
@@ -7113,18 +7115,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>215</v>
       </c>
@@ -7141,7 +7143,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>79</v>
       </c>
@@ -7150,7 +7152,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>128</v>
       </c>
@@ -7174,19 +7176,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>215</v>
       </c>
@@ -7197,7 +7199,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>79</v>
       </c>
@@ -7206,7 +7208,7 @@
       </c>
       <c r="C3" s="30"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>128</v>
       </c>
@@ -7230,33 +7232,33 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="92.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="48" width="9.28515625" style="1"/>
-    <col min="49" max="49" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.83984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.15625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="92.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.68359375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.26171875" style="1"/>
+    <col min="49" max="49" width="13.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>222</v>
       </c>
@@ -7276,7 +7278,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>236</v>
       </c>
@@ -7306,7 +7308,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>239</v>
       </c>
@@ -7330,7 +7332,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>243</v>
       </c>
@@ -7348,7 +7350,7 @@
       <c r="J5" s="64"/>
       <c r="K5" s="66"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>245</v>
       </c>
@@ -7372,7 +7374,7 @@
       <c r="J6" s="64"/>
       <c r="K6" s="66"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>248</v>
       </c>
@@ -7396,7 +7398,7 @@
       <c r="J7" s="64"/>
       <c r="K7" s="66"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>252</v>
       </c>
@@ -7435,7 +7437,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="28" t="s">
         <v>255</v>
       </c>
@@ -7486,7 +7488,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="AT10" s="1" t="s">
         <v>269</v>
       </c>
@@ -7509,7 +7511,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="AU11" s="1" t="s">
         <v>264</v>
       </c>
@@ -7517,7 +7519,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="AU12" s="1" t="s">
         <v>241</v>
       </c>
@@ -7565,17 +7567,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>214</v>
       </c>
@@ -7592,7 +7594,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>78</v>
       </c>
@@ -7605,7 +7607,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>285</v>
       </c>
@@ -7618,7 +7620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="81"/>
       <c r="B5" s="104"/>
       <c r="C5" s="104"/>
@@ -7626,7 +7628,7 @@
       <c r="E5" s="104"/>
       <c r="F5" s="104"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="104"/>
       <c r="B6" s="104"/>
       <c r="C6" s="104"/>
@@ -7634,7 +7636,7 @@
       <c r="E6" s="104"/>
       <c r="F6" s="104"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="104"/>
       <c r="B7" s="104"/>
       <c r="C7" s="104"/>
@@ -7642,7 +7644,7 @@
       <c r="E7" s="104"/>
       <c r="F7" s="104"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="104"/>
       <c r="B8" s="104"/>
       <c r="C8" s="104"/>
@@ -7650,7 +7652,7 @@
       <c r="E8" s="104"/>
       <c r="F8" s="104"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="104"/>
       <c r="B9" s="104"/>
       <c r="C9" s="104"/>
@@ -7658,7 +7660,7 @@
       <c r="E9" s="104"/>
       <c r="F9" s="104"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="104"/>
       <c r="B10" s="104"/>
       <c r="C10" s="104"/>
@@ -7666,7 +7668,7 @@
       <c r="E10" s="104"/>
       <c r="F10" s="104"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="104"/>
       <c r="B11" s="104"/>
       <c r="C11" s="104"/>
@@ -7674,7 +7676,7 @@
       <c r="E11" s="104"/>
       <c r="F11" s="104"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="104"/>
       <c r="B12" s="104"/>
       <c r="C12" s="104"/>
@@ -7682,7 +7684,7 @@
       <c r="E12" s="104"/>
       <c r="F12" s="104"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="104"/>
       <c r="B13" s="104"/>
       <c r="C13" s="104"/>
@@ -7704,18 +7706,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.41796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>215</v>
       </c>
@@ -7723,13 +7725,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="30"/>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>128</v>
       </c>
@@ -7750,18 +7752,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.26171875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>209</v>
       </c>
@@ -7778,7 +7780,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>112</v>
       </c>
@@ -7787,7 +7789,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
@@ -7796,7 +7798,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="30"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
@@ -7805,7 +7807,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="30"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>104</v>
       </c>
@@ -7814,7 +7816,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="30"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>105</v>
       </c>
@@ -7823,7 +7825,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="30"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>106</v>
       </c>
@@ -7832,7 +7834,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="30"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>107</v>
       </c>
@@ -7841,7 +7843,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="30"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>108</v>
       </c>
@@ -7850,7 +7852,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="30"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>109</v>
       </c>
@@ -7859,7 +7861,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="30"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
         <v>110</v>
       </c>
@@ -7868,7 +7870,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="30"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>111</v>
       </c>
@@ -7877,7 +7879,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="30"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
         <v>113</v>
       </c>
@@ -7886,7 +7888,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="30"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>114</v>
       </c>
@@ -7895,7 +7897,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="30"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27" t="s">
         <v>115</v>
       </c>
@@ -7904,7 +7906,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="30"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="28" t="s">
         <v>116</v>
       </c>
@@ -7929,18 +7931,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>213</v>
       </c>
@@ -7957,7 +7959,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>66</v>
       </c>
@@ -7968,7 +7970,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>67</v>
       </c>
@@ -7979,7 +7981,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="30"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>122</v>
       </c>
@@ -7990,7 +7992,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="30"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>123</v>
       </c>
@@ -8001,7 +8003,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="30"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>124</v>
       </c>
@@ -8012,7 +8014,7 @@
       </c>
       <c r="E7" s="30"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>125</v>
       </c>
@@ -8023,7 +8025,7 @@
       </c>
       <c r="E8" s="30"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>126</v>
       </c>
@@ -8034,7 +8036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="28" t="s">
         <v>127</v>
       </c>
@@ -8060,18 +8062,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>209</v>
       </c>
@@ -8085,7 +8087,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>112</v>
       </c>
@@ -8099,7 +8101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
@@ -8113,7 +8115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
@@ -8127,7 +8129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>104</v>
       </c>
@@ -8141,7 +8143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>105</v>
       </c>
@@ -8155,7 +8157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>106</v>
       </c>
@@ -8169,7 +8171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>107</v>
       </c>
@@ -8183,7 +8185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>108</v>
       </c>
@@ -8197,7 +8199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>109</v>
       </c>
@@ -8211,7 +8213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
         <v>110</v>
       </c>
@@ -8225,7 +8227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>111</v>
       </c>
@@ -8239,7 +8241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
         <v>113</v>
       </c>
@@ -8253,7 +8255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>114</v>
       </c>
@@ -8267,7 +8269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27" t="s">
         <v>115</v>
       </c>
@@ -8281,7 +8283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="28" t="s">
         <v>116</v>
       </c>
@@ -8310,18 +8312,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.41796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>211</v>
       </c>
@@ -8335,7 +8337,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
@@ -8349,7 +8351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>117</v>
       </c>
@@ -8363,7 +8365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>118</v>
       </c>
@@ -8377,7 +8379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>119</v>
       </c>
@@ -8406,18 +8408,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.26171875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>211</v>
       </c>
@@ -8434,7 +8436,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
@@ -8443,7 +8445,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>117</v>
       </c>
@@ -8452,7 +8454,7 @@
       <c r="D4" s="31"/>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>118</v>
       </c>
@@ -8461,7 +8463,7 @@
       <c r="D5" s="31"/>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" spans="1:5" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="7" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>119</v>
       </c>
@@ -8485,18 +8487,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.41796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>211</v>
       </c>
@@ -8507,7 +8509,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="7" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
@@ -8529,19 +8531,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.68359375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$9, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Water Demand for Completions Sites over weeks [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>211</v>
       </c>
@@ -8702,7 +8704,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
@@ -8779,7 +8781,7 @@
       <c r="AZ3" s="42"/>
       <c r="BA3" s="36"/>
     </row>
-    <row r="4" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>117</v>
       </c>
@@ -8864,7 +8866,7 @@
       <c r="AZ4" s="42"/>
       <c r="BA4" s="36"/>
     </row>
-    <row r="5" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>118</v>
       </c>
@@ -8937,7 +8939,7 @@
       <c r="AZ5" s="42"/>
       <c r="BA5" s="36"/>
     </row>
-    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>119</v>
       </c>
@@ -9028,47 +9030,47 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -9089,22 +9091,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.83984375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.26171875" style="1"/>
+    <col min="3" max="3" width="10.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Production Rate Forecasts by Pads [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>209</v>
       </c>
@@ -9265,7 +9267,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>112</v>
       </c>
@@ -9478,7 +9480,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
@@ -9691,7 +9693,7 @@
         <v>22826.547097429568</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
@@ -9904,7 +9906,7 @@
         <v>20853.895411663008</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>104</v>
       </c>
@@ -10117,7 +10119,7 @@
         <v>12936.237157458605</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>105</v>
       </c>
@@ -10330,7 +10332,7 @@
         <v>10093.208985005042</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>106</v>
       </c>
@@ -10543,7 +10545,7 @@
         <v>25030.845039782169</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>107</v>
       </c>
@@ -10756,7 +10758,7 @@
         <v>21394.248548185435</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>108</v>
       </c>
@@ -10969,7 +10971,7 @@
         <v>19620.846059435706</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>109</v>
       </c>
@@ -11182,7 +11184,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
         <v>110</v>
       </c>
@@ -11395,7 +11397,7 @@
         <v>19056.740567787925</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>111</v>
       </c>
@@ -11608,7 +11610,7 @@
         <v>10459.139487125793</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
         <v>113</v>
       </c>
@@ -11821,7 +11823,7 @@
         <v>11226.398478579069</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>114</v>
       </c>
@@ -12034,7 +12036,7 @@
         <v>9948.0491512241751</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27" t="s">
         <v>115</v>
       </c>
@@ -12247,7 +12249,7 @@
         <v>13401.937357783543</v>
       </c>
     </row>
-    <row r="17" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="28" t="s">
         <v>116</v>
       </c>
@@ -12460,12 +12462,12 @@
         <v>8411.007487504201</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -12486,24 +12488,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="9.26171875" style="1"/>
+    <col min="3" max="3" width="3.578125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.26171875" style="1"/>
+    <col min="13" max="13" width="11.26171875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.578125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>112</v>
       </c>
@@ -12524,7 +12526,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -12545,67 +12547,67 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>116</v>
       </c>
@@ -12626,22 +12628,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="19" style="7" customWidth="1"/>
-    <col min="2" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="15" width="11.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Flowback Rate Forecasts by Pads [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>211</v>
       </c>
@@ -12802,7 +12804,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
@@ -12979,7 +12981,7 @@
         <v>38495.240630664819</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>117</v>
       </c>
@@ -13084,7 +13086,7 @@
         <v>63660.095793436725</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>118</v>
       </c>
@@ -13234,7 +13236,7 @@
         <v>56817.904350212186</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>119</v>
       </c>
@@ -13291,42 +13293,42 @@
       <c r="AZ6" s="37"/>
       <c r="BA6" s="38"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -13347,16 +13349,16 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1"/>
-    <col min="2" max="5" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="33" width="9.28515625" style="1"/>
-    <col min="34" max="37" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="9.26171875" style="1"/>
+    <col min="2" max="5" width="11.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="33" width="9.26171875" style="1"/>
+    <col min="34" max="37" width="11.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Pipeline Capacity between Sites  [bbl/week]</v>
@@ -13401,7 +13403,7 @@
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>208</v>
       </c>
@@ -13523,7 +13525,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
@@ -13571,7 +13573,7 @@
       <c r="AM3" s="35"/>
       <c r="AN3" s="36"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>117</v>
       </c>
@@ -13619,7 +13621,7 @@
       <c r="AM4" s="35"/>
       <c r="AN4" s="36"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>118</v>
       </c>
@@ -13667,7 +13669,7 @@
       <c r="AM5" s="35"/>
       <c r="AN5" s="36"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="47" t="s">
         <v>119</v>
       </c>
@@ -13713,7 +13715,7 @@
       <c r="AM6" s="107"/>
       <c r="AN6" s="48"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>130</v>
       </c>
@@ -13761,7 +13763,7 @@
       <c r="AM7" s="35"/>
       <c r="AN7" s="36"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>80</v>
       </c>
@@ -13811,7 +13813,7 @@
       <c r="AM8" s="35"/>
       <c r="AN8" s="36"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>81</v>
       </c>
@@ -13861,7 +13863,7 @@
       <c r="AM9" s="35"/>
       <c r="AN9" s="36"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>82</v>
       </c>
@@ -13911,7 +13913,7 @@
       </c>
       <c r="AN10" s="36"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>83</v>
       </c>
@@ -13959,7 +13961,7 @@
       <c r="AM11" s="35"/>
       <c r="AN11" s="36"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
         <v>84</v>
       </c>
@@ -14007,7 +14009,7 @@
       <c r="AM12" s="35"/>
       <c r="AN12" s="36"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>85</v>
       </c>
@@ -14057,7 +14059,7 @@
       <c r="AM13" s="35"/>
       <c r="AN13" s="36"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
         <v>86</v>
       </c>
@@ -14107,7 +14109,7 @@
       <c r="AM14" s="35"/>
       <c r="AN14" s="36"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>131</v>
       </c>
@@ -14157,7 +14159,7 @@
       <c r="AM15" s="35"/>
       <c r="AN15" s="36"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27" t="s">
         <v>132</v>
       </c>
@@ -14205,7 +14207,7 @@
       <c r="AM16" s="35"/>
       <c r="AN16" s="36"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="27" t="s">
         <v>133</v>
       </c>
@@ -14253,7 +14255,7 @@
       <c r="AM17" s="35"/>
       <c r="AN17" s="36"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27" t="s">
         <v>134</v>
       </c>
@@ -14299,7 +14301,7 @@
       <c r="AM18" s="35"/>
       <c r="AN18" s="36"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27" t="s">
         <v>135</v>
       </c>
@@ -14347,7 +14349,7 @@
       <c r="AM19" s="35"/>
       <c r="AN19" s="36"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27" t="s">
         <v>136</v>
       </c>
@@ -14397,7 +14399,7 @@
       <c r="AM20" s="35"/>
       <c r="AN20" s="36"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="27" t="s">
         <v>137</v>
       </c>
@@ -14445,7 +14447,7 @@
       <c r="AM21" s="35"/>
       <c r="AN21" s="36"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="27" t="s">
         <v>138</v>
       </c>
@@ -14493,7 +14495,7 @@
       <c r="AM22" s="35"/>
       <c r="AN22" s="36"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="27" t="s">
         <v>139</v>
       </c>
@@ -14543,7 +14545,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="27" t="s">
         <v>140</v>
       </c>
@@ -14591,7 +14593,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="27" t="s">
         <v>141</v>
       </c>
@@ -14639,7 +14641,7 @@
       <c r="AM25" s="35"/>
       <c r="AN25" s="36"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="27" t="s">
         <v>142</v>
       </c>
@@ -14689,7 +14691,7 @@
       <c r="AM26" s="35"/>
       <c r="AN26" s="36"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="27" t="s">
         <v>143</v>
       </c>
@@ -14737,7 +14739,7 @@
       <c r="AM27" s="35"/>
       <c r="AN27" s="36"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="27" t="s">
         <v>144</v>
       </c>
@@ -14787,7 +14789,7 @@
       <c r="AM28" s="35"/>
       <c r="AN28" s="36"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="27" t="s">
         <v>145</v>
       </c>
@@ -14835,7 +14837,7 @@
       <c r="AM29" s="35"/>
       <c r="AN29" s="36"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="27" t="s">
         <v>146</v>
       </c>
@@ -14883,7 +14885,7 @@
       <c r="AM30" s="35"/>
       <c r="AN30" s="36"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="27" t="s">
         <v>147</v>
       </c>
@@ -14931,7 +14933,7 @@
       <c r="AM31" s="35"/>
       <c r="AN31" s="36"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="27" t="s">
         <v>148</v>
       </c>
@@ -14979,7 +14981,7 @@
       <c r="AM32" s="35"/>
       <c r="AN32" s="36"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="27" t="s">
         <v>149</v>
       </c>
@@ -15025,7 +15027,7 @@
       <c r="AM33" s="35"/>
       <c r="AN33" s="36"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="47" t="s">
         <v>150</v>
       </c>
@@ -15075,7 +15077,7 @@
       <c r="AM34" s="107"/>
       <c r="AN34" s="48"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="27" t="s">
         <v>79</v>
       </c>
@@ -15123,7 +15125,7 @@
       <c r="AM35" s="35"/>
       <c r="AN35" s="36"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="47" t="s">
         <v>128</v>
       </c>
@@ -15171,7 +15173,7 @@
       <c r="AM36" s="107"/>
       <c r="AN36" s="48"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="27" t="s">
         <v>78</v>
       </c>
@@ -15221,7 +15223,7 @@
       <c r="AM37" s="35"/>
       <c r="AN37" s="36"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="47" t="s">
         <v>285</v>
       </c>
@@ -15271,7 +15273,7 @@
       <c r="AM38" s="107"/>
       <c r="AN38" s="48"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="27" t="s">
         <v>121</v>
       </c>
@@ -15317,7 +15319,7 @@
       <c r="AM39" s="35"/>
       <c r="AN39" s="36"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="27" t="s">
         <v>51</v>
       </c>
@@ -15363,7 +15365,7 @@
       <c r="AM40" s="35"/>
       <c r="AN40" s="36"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="47" t="s">
         <v>120</v>
       </c>
@@ -15411,7 +15413,7 @@
       <c r="AM41" s="107"/>
       <c r="AN41" s="48"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="27" t="s">
         <v>112</v>
       </c>
@@ -15457,7 +15459,7 @@
       <c r="AM42" s="35"/>
       <c r="AN42" s="36"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="27" t="s">
         <v>3</v>
       </c>
@@ -15503,7 +15505,7 @@
       <c r="AM43" s="35"/>
       <c r="AN43" s="36"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="27" t="s">
         <v>4</v>
       </c>
@@ -15549,7 +15551,7 @@
       <c r="AM44" s="35"/>
       <c r="AN44" s="36"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="27" t="s">
         <v>104</v>
       </c>
@@ -15595,7 +15597,7 @@
       <c r="AM45" s="35"/>
       <c r="AN45" s="36"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="27" t="s">
         <v>105</v>
       </c>
@@ -15643,7 +15645,7 @@
       <c r="AM46" s="35"/>
       <c r="AN46" s="36"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="27" t="s">
         <v>106</v>
       </c>
@@ -15689,7 +15691,7 @@
       <c r="AM47" s="35"/>
       <c r="AN47" s="36"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="27" t="s">
         <v>107</v>
       </c>
@@ -15735,7 +15737,7 @@
       <c r="AM48" s="35"/>
       <c r="AN48" s="36"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="27" t="s">
         <v>108</v>
       </c>
@@ -15781,7 +15783,7 @@
       <c r="AM49" s="35"/>
       <c r="AN49" s="36"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="27" t="s">
         <v>109</v>
       </c>
@@ -15827,7 +15829,7 @@
       <c r="AM50" s="35"/>
       <c r="AN50" s="36"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="27" t="s">
         <v>110</v>
       </c>
@@ -15873,7 +15875,7 @@
       <c r="AM51" s="35"/>
       <c r="AN51" s="36"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="27" t="s">
         <v>111</v>
       </c>
@@ -15919,7 +15921,7 @@
       <c r="AM52" s="35"/>
       <c r="AN52" s="36"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="27" t="s">
         <v>113</v>
       </c>
@@ -15965,7 +15967,7 @@
       <c r="AM53" s="35"/>
       <c r="AN53" s="36"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="27" t="s">
         <v>114</v>
       </c>
@@ -16011,7 +16013,7 @@
       <c r="AM54" s="35"/>
       <c r="AN54" s="36"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="27" t="s">
         <v>115</v>
       </c>
@@ -16057,7 +16059,7 @@
       <c r="AM55" s="35"/>
       <c r="AN55" s="36"/>
     </row>
-    <row r="56" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:40" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A56" s="28" t="s">
         <v>116</v>
       </c>
@@ -16119,19 +16121,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="12.15625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Disposal Capacity  [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>212</v>
       </c>
@@ -16139,7 +16141,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>121</v>
       </c>
@@ -16147,7 +16149,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>51</v>
       </c>
@@ -16155,7 +16157,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="28" t="s">
         <v>120</v>
       </c>
@@ -16178,20 +16180,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.41796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>214</v>
       </c>
@@ -16199,7 +16201,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>78</v>
       </c>
@@ -16207,7 +16209,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>285</v>
       </c>
@@ -16230,19 +16232,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.15625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Treatment Capacity [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>215</v>
       </c>
@@ -16253,7 +16255,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>79</v>
       </c>
@@ -16264,7 +16266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>128</v>
       </c>
@@ -16290,19 +16292,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Sourcing Availability [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>213</v>
       </c>
@@ -16463,7 +16465,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>66</v>
       </c>
@@ -16624,7 +16626,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>67</v>
       </c>
@@ -16785,7 +16787,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>122</v>
       </c>
@@ -16946,7 +16948,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>123</v>
       </c>
@@ -17107,7 +17109,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="7" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>124</v>
       </c>
@@ -17268,7 +17270,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="8" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>125</v>
       </c>
@@ -17429,7 +17431,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>126</v>
       </c>
@@ -17590,7 +17592,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="28" t="s">
         <v>127</v>
       </c>
@@ -17751,47 +17753,47 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -17812,20 +17814,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.83984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Pad Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>211</v>
       </c>
@@ -17833,7 +17835,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
@@ -17841,7 +17843,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>117</v>
       </c>
@@ -17849,7 +17851,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>118</v>
       </c>
@@ -17857,7 +17859,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>119</v>
       </c>
@@ -17880,19 +17882,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pad Offloading Capacity [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>211</v>
       </c>
@@ -17900,7 +17902,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
@@ -17908,7 +17910,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>117</v>
       </c>
@@ -17916,7 +17918,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>118</v>
       </c>
@@ -17924,7 +17926,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>119</v>
       </c>
@@ -17948,20 +17950,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="11.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]", " (absence of node or empty cell signifies no max capacity)")</f>
         <v>Table of Node Capacity Capacity [bbl/week] (absence of node or empty cell signifies no max capacity)</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>208</v>
       </c>
@@ -17969,7 +17971,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>130</v>
       </c>
@@ -17990,20 +17992,20 @@
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83984375" style="1" customWidth="1"/>
     <col min="2" max="53" width="9" style="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.28515625" style="1"/>
+    <col min="54" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Operating Capacity of Disposal Site [%]")</f>
         <v>Operating Capacity of Disposal Site [%]</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="91" t="s">
         <v>212</v>
       </c>
@@ -18164,7 +18166,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="51" t="s">
         <v>121</v>
       </c>
@@ -18325,7 +18327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>51</v>
       </c>
@@ -18486,7 +18488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:56" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" s="7" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="28" t="s">
         <v>120</v>
       </c>
@@ -18648,10 +18650,10 @@
       </c>
       <c r="BD5" s="77"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="78"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="1" t="s">
         <v>279</v>
       </c>
@@ -18671,24 +18673,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="9.26171875" style="1"/>
+    <col min="3" max="3" width="3.578125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.26171875" style="1"/>
+    <col min="13" max="13" width="11.26171875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.578125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -18709,7 +18711,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>53</v>
       </c>
@@ -18730,7 +18732,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
@@ -18751,7 +18753,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
@@ -18772,7 +18774,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
@@ -18793,47 +18795,47 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>65</v>
       </c>
@@ -18854,19 +18856,19 @@
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="12.15625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>212</v>
       </c>
@@ -18874,7 +18876,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>121</v>
       </c>
@@ -18882,7 +18884,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>51</v>
       </c>
@@ -18890,7 +18892,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="7" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="28" t="s">
         <v>120</v>
       </c>
@@ -18914,20 +18916,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.26171875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.41796875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>215</v>
       </c>
@@ -18938,7 +18940,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>79</v>
       </c>
@@ -18949,7 +18951,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>128</v>
       </c>
@@ -18960,7 +18962,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>79</v>
       </c>
@@ -18971,7 +18973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>128</v>
       </c>
@@ -18982,22 +18984,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" s="84" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="80"/>
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
     </row>
-    <row r="8" spans="1:3" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="84" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="80"/>
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
     </row>
-    <row r="9" spans="1:3" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="84" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="80"/>
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
     </row>
-    <row r="10" spans="1:3" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="84" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="80"/>
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
@@ -19017,19 +19019,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.15625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Reuse Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>211</v>
       </c>
@@ -19037,7 +19039,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
@@ -19045,7 +19047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>117</v>
       </c>
@@ -19053,7 +19055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>118</v>
       </c>
@@ -19061,7 +19063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>119</v>
       </c>
@@ -19084,20 +19086,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="9.26171875" style="1"/>
+    <col min="2" max="2" width="10.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
@@ -19105,7 +19107,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>130</v>
       </c>
@@ -19127,19 +19129,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="21.578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Souring Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>213</v>
       </c>
@@ -19147,7 +19149,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>66</v>
       </c>
@@ -19155,7 +19157,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>67</v>
       </c>
@@ -19163,7 +19165,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>122</v>
       </c>
@@ -19171,7 +19173,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>123</v>
       </c>
@@ -19179,7 +19181,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>124</v>
       </c>
@@ -19187,7 +19189,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>125</v>
       </c>
@@ -19195,7 +19197,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>126</v>
       </c>
@@ -19203,7 +19205,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="28" t="s">
         <v>127</v>
       </c>
@@ -19226,18 +19228,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", "hour","]")</f>
         <v>Table of Trucking Hourly Cost [USD/hour]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>208</v>
       </c>
@@ -19245,7 +19247,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>112</v>
       </c>
@@ -19253,7 +19255,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
@@ -19261,7 +19263,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
@@ -19269,7 +19271,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>104</v>
       </c>
@@ -19277,7 +19279,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>105</v>
       </c>
@@ -19285,7 +19287,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>106</v>
       </c>
@@ -19293,7 +19295,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>107</v>
       </c>
@@ -19301,7 +19303,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>108</v>
       </c>
@@ -19309,7 +19311,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>109</v>
       </c>
@@ -19317,7 +19319,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
         <v>110</v>
       </c>
@@ -19325,7 +19327,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>111</v>
       </c>
@@ -19333,7 +19335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
         <v>113</v>
       </c>
@@ -19341,7 +19343,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>114</v>
       </c>
@@ -19349,7 +19351,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27" t="s">
         <v>115</v>
       </c>
@@ -19357,7 +19359,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="47" t="s">
         <v>116</v>
       </c>
@@ -19365,7 +19367,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27" t="s">
         <v>5</v>
       </c>
@@ -19373,7 +19375,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27" t="s">
         <v>117</v>
       </c>
@@ -19381,7 +19383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27" t="s">
         <v>118</v>
       </c>
@@ -19389,7 +19391,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="47" t="s">
         <v>119</v>
       </c>
@@ -19397,7 +19399,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="27" t="s">
         <v>66</v>
       </c>
@@ -19405,7 +19407,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="27" t="s">
         <v>67</v>
       </c>
@@ -19413,7 +19415,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="27" t="s">
         <v>122</v>
       </c>
@@ -19421,7 +19423,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="27" t="s">
         <v>123</v>
       </c>
@@ -19429,7 +19431,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="27" t="s">
         <v>124</v>
       </c>
@@ -19437,7 +19439,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="27" t="s">
         <v>125</v>
       </c>
@@ -19445,7 +19447,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="27" t="s">
         <v>126</v>
       </c>
@@ -19453,7 +19455,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="28" t="s">
         <v>127</v>
       </c>
@@ -19477,17 +19479,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>208</v>
       </c>
@@ -19501,7 +19503,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>112</v>
       </c>
@@ -19515,7 +19517,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
@@ -19529,7 +19531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
@@ -19543,7 +19545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>104</v>
       </c>
@@ -19557,7 +19559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>105</v>
       </c>
@@ -19571,7 +19573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>106</v>
       </c>
@@ -19585,7 +19587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>107</v>
       </c>
@@ -19599,7 +19601,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>108</v>
       </c>
@@ -19613,7 +19615,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>109</v>
       </c>
@@ -19627,7 +19629,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
         <v>110</v>
       </c>
@@ -19641,7 +19643,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>111</v>
       </c>
@@ -19655,7 +19657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
         <v>113</v>
       </c>
@@ -19669,7 +19671,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>114</v>
       </c>
@@ -19683,7 +19685,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27" t="s">
         <v>115</v>
       </c>
@@ -19697,7 +19699,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="47" t="s">
         <v>116</v>
       </c>
@@ -19711,7 +19713,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27" t="s">
         <v>5</v>
       </c>
@@ -19725,7 +19727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27" t="s">
         <v>117</v>
       </c>
@@ -19739,7 +19741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27" t="s">
         <v>118</v>
       </c>
@@ -19753,7 +19755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="28" t="s">
         <v>119</v>
       </c>
@@ -19783,19 +19785,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="11.83984375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/week)]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>212</v>
       </c>
@@ -19803,7 +19805,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>121</v>
       </c>
@@ -19811,7 +19813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>51</v>
       </c>
@@ -19819,7 +19821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="7" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="28" t="s">
         <v>120</v>
       </c>
@@ -19843,19 +19845,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="21.41796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>219</v>
       </c>
@@ -19863,7 +19865,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>92</v>
       </c>
@@ -19886,19 +19888,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.41796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>214</v>
       </c>
@@ -19906,7 +19908,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>78</v>
       </c>
@@ -19914,7 +19916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>285</v>
       </c>
@@ -19937,30 +19939,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>117</v>
       </c>
@@ -19983,7 +19985,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>118</v>
       </c>
@@ -20006,7 +20008,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>119</v>
       </c>
@@ -20029,7 +20031,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -20049,7 +20051,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -20069,7 +20071,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -20089,7 +20091,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -20125,19 +20127,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.41796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Increments [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>218</v>
       </c>
@@ -20145,7 +20147,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -20168,21 +20170,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="1"/>
+    <col min="5" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Treatment Capacity Expansion Cost [USD/(bbl/week)]</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>215</v>
       </c>
@@ -20196,7 +20198,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>79</v>
       </c>
@@ -20210,7 +20212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>128</v>
       </c>
@@ -20224,7 +20226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>79</v>
       </c>
@@ -20238,7 +20240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>128</v>
       </c>
@@ -20252,23 +20254,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
@@ -20287,20 +20289,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="21.26171875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.68359375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Capacity Expansion Increments  [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>220</v>
       </c>
@@ -20311,7 +20313,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>277</v>
       </c>
@@ -20322,7 +20324,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>278</v>
       </c>
@@ -20348,12 +20350,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Pipeline Expansion Cost [USD/(inch-mile)]</v>
@@ -20361,7 +20363,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>222</v>
       </c>
@@ -20369,7 +20371,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>226</v>
       </c>
@@ -20391,9 +20393,9 @@
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Distances [mile]</v>
@@ -20401,7 +20403,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>208</v>
       </c>
@@ -20523,7 +20525,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>112</v>
       </c>
@@ -20643,7 +20645,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
@@ -20763,7 +20765,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
@@ -20883,7 +20885,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>104</v>
       </c>
@@ -21003,7 +21005,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>105</v>
       </c>
@@ -21123,7 +21125,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>106</v>
       </c>
@@ -21243,7 +21245,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>107</v>
       </c>
@@ -21363,7 +21365,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>108</v>
       </c>
@@ -21483,7 +21485,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>109</v>
       </c>
@@ -21603,7 +21605,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
         <v>110</v>
       </c>
@@ -21723,7 +21725,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>111</v>
       </c>
@@ -21843,7 +21845,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
         <v>113</v>
       </c>
@@ -21963,7 +21965,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>114</v>
       </c>
@@ -22083,7 +22085,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27" t="s">
         <v>115</v>
       </c>
@@ -22203,7 +22205,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="47" t="s">
         <v>116</v>
       </c>
@@ -22323,7 +22325,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27" t="s">
         <v>5</v>
       </c>
@@ -22439,7 +22441,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27" t="s">
         <v>117</v>
       </c>
@@ -22555,7 +22557,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27" t="s">
         <v>118</v>
       </c>
@@ -22673,7 +22675,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="47" t="s">
         <v>119</v>
       </c>
@@ -22789,7 +22791,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="27" t="s">
         <v>130</v>
       </c>
@@ -22909,7 +22911,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="27" t="s">
         <v>80</v>
       </c>
@@ -23029,7 +23031,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="27" t="s">
         <v>81</v>
       </c>
@@ -23149,7 +23151,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="27" t="s">
         <v>82</v>
       </c>
@@ -23269,7 +23271,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="27" t="s">
         <v>83</v>
       </c>
@@ -23389,7 +23391,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="27" t="s">
         <v>84</v>
       </c>
@@ -23509,7 +23511,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="27" t="s">
         <v>85</v>
       </c>
@@ -23629,7 +23631,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="27" t="s">
         <v>86</v>
       </c>
@@ -23749,7 +23751,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="27" t="s">
         <v>131</v>
       </c>
@@ -23869,7 +23871,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="27" t="s">
         <v>132</v>
       </c>
@@ -23987,7 +23989,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="27" t="s">
         <v>133</v>
       </c>
@@ -24107,7 +24109,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="27" t="s">
         <v>134</v>
       </c>
@@ -24223,7 +24225,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="27" t="s">
         <v>135</v>
       </c>
@@ -24343,7 +24345,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="27" t="s">
         <v>136</v>
       </c>
@@ -24463,7 +24465,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="27" t="s">
         <v>137</v>
       </c>
@@ -24583,7 +24585,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="27" t="s">
         <v>138</v>
       </c>
@@ -24703,7 +24705,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="27" t="s">
         <v>139</v>
       </c>
@@ -24823,7 +24825,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="27" t="s">
         <v>140</v>
       </c>
@@ -24943,7 +24945,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="27" t="s">
         <v>141</v>
       </c>
@@ -25063,7 +25065,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="27" t="s">
         <v>142</v>
       </c>
@@ -25183,7 +25185,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="27" t="s">
         <v>143</v>
       </c>
@@ -25303,7 +25305,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="27" t="s">
         <v>144</v>
       </c>
@@ -25423,7 +25425,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="27" t="s">
         <v>145</v>
       </c>
@@ -25541,7 +25543,7 @@
       </c>
       <c r="AN44" s="30"/>
     </row>
-    <row r="45" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="27" t="s">
         <v>146</v>
       </c>
@@ -25661,7 +25663,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="27" t="s">
         <v>147</v>
       </c>
@@ -25781,7 +25783,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="27" t="s">
         <v>148</v>
       </c>
@@ -25901,7 +25903,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="27" t="s">
         <v>149</v>
       </c>
@@ -26021,7 +26023,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="49" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="47" t="s">
         <v>150</v>
       </c>
@@ -26141,7 +26143,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="50" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="27" t="s">
         <v>78</v>
       </c>
@@ -26259,7 +26261,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="51" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="47" t="s">
         <v>285</v>
       </c>
@@ -26309,7 +26311,7 @@
         <v>46.479550000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="27" t="s">
         <v>66</v>
       </c>
@@ -26429,7 +26431,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="27" t="s">
         <v>67</v>
       </c>
@@ -26549,7 +26551,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="27" t="s">
         <v>122</v>
       </c>
@@ -26669,7 +26671,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="27" t="s">
         <v>123</v>
       </c>
@@ -26789,7 +26791,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="27" t="s">
         <v>124</v>
       </c>
@@ -26909,7 +26911,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="27" t="s">
         <v>125</v>
       </c>
@@ -27029,7 +27031,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="58" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="27" t="s">
         <v>126</v>
       </c>
@@ -27149,7 +27151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="47" t="s">
         <v>127</v>
       </c>
@@ -27269,7 +27271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="27" t="s">
         <v>79</v>
       </c>
@@ -27381,7 +27383,7 @@
       <c r="AM60" s="8"/>
       <c r="AN60" s="30"/>
     </row>
-    <row r="61" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:40" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A61" s="28" t="s">
         <v>128</v>
       </c>
@@ -27507,9 +27509,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/week)]</v>
@@ -27517,7 +27519,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>208</v>
       </c>
@@ -27528,7 +27530,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>130</v>
       </c>
@@ -27539,7 +27541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>80</v>
       </c>
@@ -27564,19 +27566,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="20.41796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Capacity Expansion Increments [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>217</v>
       </c>
@@ -27584,7 +27586,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>87</v>
       </c>
@@ -27607,19 +27609,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="20.83984375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Diameters [inch]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>217</v>
       </c>
@@ -27627,7 +27629,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>87</v>
       </c>
@@ -27648,21 +27650,23 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="3" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>215</v>
       </c>
@@ -27673,7 +27677,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>79</v>
       </c>
@@ -27684,7 +27688,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>128</v>
       </c>
@@ -27695,7 +27699,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>79</v>
       </c>
@@ -27706,7 +27710,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>128</v>
       </c>
@@ -27717,22 +27721,22 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="80"/>
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="80"/>
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="80"/>
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="80"/>
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
@@ -27744,45 +27748,77 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CCDB1D-7C9B-45C0-BC80-50ECEB2FE439}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A32EEB0-CDB8-48FA-AC3A-32F164C0112D}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="88" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+      <c r="C2" s="26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="89" t="s">
         <v>277</v>
       </c>
-      <c r="B3" s="36">
+      <c r="C3" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="93" t="s">
+    <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="B4" s="38">
+      <c r="C5" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="34">
         <v>0</v>
       </c>
     </row>
@@ -27800,23 +27836,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.28515625" style="1"/>
-    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="4.41796875" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.26171875" style="1"/>
+    <col min="15" max="15" width="12.15625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>121</v>
       </c>
@@ -27837,7 +27873,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
@@ -27858,7 +27894,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>120</v>
       </c>
@@ -27887,6 +27923,54 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CCDB1D-7C9B-45C0-BC80-50ECEB2FE439}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="25.15625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="91" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="93" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="38">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805001D5-70DF-464C-8122-7D31EBC77774}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -27895,17 +27979,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>215</v>
       </c>
@@ -27913,7 +27997,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>79</v>
       </c>
@@ -27921,7 +28005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>128</v>
       </c>
@@ -27929,19 +28013,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="80"/>
       <c r="B5" s="80"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="80"/>
       <c r="B6" s="80"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="80"/>
       <c r="B7" s="80"/>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="80"/>
       <c r="B8" s="80"/>
     </row>
@@ -27950,7 +28034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D5E840-A652-4014-8BA7-131503FECE29}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -27959,17 +28043,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>211</v>
       </c>
@@ -27977,7 +28061,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
@@ -27985,7 +28069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>117</v>
       </c>
@@ -27993,7 +28077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>118</v>
       </c>
@@ -28001,7 +28085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>119</v>
       </c>
@@ -28014,7 +28098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97A568C-E2FB-4ADF-84D0-ABF3E0446F9A}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -28023,17 +28107,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="29" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>222</v>
       </c>
@@ -28041,7 +28125,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>224</v>
       </c>
@@ -28049,7 +28133,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>225</v>
       </c>
@@ -28062,7 +28146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB07E06-ED03-4572-9B3E-05DAA3F2CF42}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -28071,17 +28155,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="29" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>222</v>
       </c>
@@ -28089,7 +28173,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>230</v>
       </c>
@@ -28097,7 +28181,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>231</v>
       </c>
@@ -28110,7 +28194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23C97C0-70AD-4A71-BE9C-0931EDC97CA5}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -28119,18 +28203,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>232</v>
       </c>
@@ -28138,7 +28222,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="51" t="s">
         <v>112</v>
       </c>
@@ -28146,7 +28230,7 @@
         <v>142277</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
@@ -28154,7 +28238,7 @@
         <v>140998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
@@ -28162,7 +28246,7 @@
         <v>172490.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>104</v>
       </c>
@@ -28170,7 +28254,7 @@
         <v>257547</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>105</v>
       </c>
@@ -28178,7 +28262,7 @@
         <v>241833.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>106</v>
       </c>
@@ -28186,7 +28270,7 @@
         <v>188503.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>107</v>
       </c>
@@ -28194,7 +28278,7 @@
         <v>146716</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>108</v>
       </c>
@@ -28202,7 +28286,7 @@
         <v>216563</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>109</v>
       </c>
@@ -28210,7 +28294,7 @@
         <v>150626</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
         <v>110</v>
       </c>
@@ -28218,7 +28302,7 @@
         <v>247061</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>111</v>
       </c>
@@ -28226,7 +28310,7 @@
         <v>180968</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
         <v>113</v>
       </c>
@@ -28234,7 +28318,7 @@
         <v>195584</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>114</v>
       </c>
@@ -28242,7 +28326,7 @@
         <v>148655</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27" t="s">
         <v>115</v>
       </c>
@@ -28250,7 +28334,7 @@
         <v>185369</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="47" t="s">
         <v>116</v>
       </c>
@@ -28258,7 +28342,7 @@
         <v>222724</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27" t="s">
         <v>5</v>
       </c>
@@ -28266,7 +28350,7 @@
         <v>165376</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27" t="s">
         <v>117</v>
       </c>
@@ -28274,7 +28358,7 @@
         <v>240977</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27" t="s">
         <v>118</v>
       </c>
@@ -28282,7 +28366,7 @@
         <v>192794</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="28" t="s">
         <v>119</v>
       </c>
@@ -28296,7 +28380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485401B3-8B00-41A4-BDC3-322B62874F13}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -28307,18 +28391,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>232</v>
       </c>
@@ -28326,7 +28410,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="51" t="s">
         <v>78</v>
       </c>
@@ -28334,7 +28418,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>285</v>
       </c>
@@ -28347,7 +28431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C5F8D1-3580-447F-A30D-0D2BFC2160E3}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -28356,19 +28440,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.68359375" customWidth="1"/>
+    <col min="2" max="2" width="12.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>211</v>
       </c>
@@ -28376,7 +28460,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
@@ -28384,7 +28468,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>117</v>
       </c>
@@ -28392,7 +28476,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>118</v>
       </c>
@@ -28400,7 +28484,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>119</v>
       </c>
@@ -28424,30 +28508,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -28470,7 +28554,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>122</v>
       </c>
@@ -28493,7 +28577,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>123</v>
       </c>
@@ -28516,7 +28600,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>124</v>
       </c>
@@ -28539,7 +28623,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>125</v>
       </c>
@@ -28562,7 +28646,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>126</v>
       </c>
@@ -28585,7 +28669,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>127</v>
       </c>
@@ -28624,30 +28708,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>285</v>
       </c>
@@ -28670,7 +28754,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -28690,7 +28774,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -28710,7 +28794,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -28730,7 +28814,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -28750,7 +28834,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -28770,7 +28854,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>

--- a/pareto/case_studies/strategic_small_case_study.xlsx
+++ b/pareto/case_studies/strategic_small_case_study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmira\Documents\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFB4A79-A492-4B61-95E7-53729BE7D8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945F9B65-50DE-4FEC-BCA2-612B56A1F6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="62" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -27755,7 +27755,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -27786,7 +27786,7 @@
         <v>277</v>
       </c>
       <c r="C3" s="33">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -27797,7 +27797,7 @@
         <v>277</v>
       </c>
       <c r="C4" s="33">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -27808,7 +27808,7 @@
         <v>278</v>
       </c>
       <c r="C5" s="33">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
@@ -27819,7 +27819,7 @@
         <v>278</v>
       </c>
       <c r="C6" s="34">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_small_case_study.xlsx
+++ b/pareto/case_studies/strategic_small_case_study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmira\Documents\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945F9B65-50DE-4FEC-BCA2-612B56A1F6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B555D827-2BC4-4A88-A98D-0CC831FC7A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="62" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -27755,7 +27755,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -27786,7 +27786,7 @@
         <v>277</v>
       </c>
       <c r="C3" s="33">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -27797,7 +27797,7 @@
         <v>277</v>
       </c>
       <c r="C4" s="33">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -27808,7 +27808,7 @@
         <v>278</v>
       </c>
       <c r="C5" s="33">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
@@ -27819,7 +27819,7 @@
         <v>278</v>
       </c>
       <c r="C6" s="34">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_small_case_study.xlsx
+++ b/pareto/case_studies/strategic_small_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmira\Documents\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B555D827-2BC4-4A88-A98D-0CC831FC7A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2445DC5-C258-4EB5-BD3F-1021C99450E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="62" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="68" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="289">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -975,7 +975,10 @@
     <t>Table with indication if the treatment technology is for desalination</t>
   </si>
   <si>
-    <t>Table of Removal Efficiency [%]</t>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Table of Removal Efficiency [%]. Note: The removal efficiency of a component can be estimated based on its concentration or its total load (flow times concentration). The default method for calculating removal efficacy is concentration-based. This configuration option is set prior to running the optimization. Refer to 'Water Treatment' in Model Library documentation.</t>
   </si>
 </sst>
 </file>
@@ -27752,22 +27755,22 @@
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>215</v>
       </c>
@@ -27777,8 +27780,11 @@
       <c r="C2" s="26" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2" s="26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>79</v>
       </c>
@@ -27788,8 +27794,11 @@
       <c r="C3" s="33">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" s="33">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>128</v>
       </c>
@@ -27799,8 +27808,11 @@
       <c r="C4" s="33">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="33">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>79</v>
       </c>
@@ -27810,16 +27822,22 @@
       <c r="C5" s="33">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D5" s="33">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="90" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <v>0</v>
+      </c>
+      <c r="D6" s="33">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -28199,179 +28217,241 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>232</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" s="50" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="51" t="s">
         <v>112</v>
       </c>
       <c r="B3" s="52">
         <v>142277</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="52">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="53">
         <v>140998</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="53">
         <v>172490.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="53">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>104</v>
       </c>
       <c r="B6" s="53">
         <v>257547</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>105</v>
       </c>
       <c r="B7" s="53">
         <v>241833.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="52">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>106</v>
       </c>
       <c r="B8" s="53">
         <v>188503.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>107</v>
       </c>
       <c r="B9" s="53">
         <v>146716</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="53">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>108</v>
       </c>
       <c r="B10" s="53">
         <v>216563</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>109</v>
       </c>
       <c r="B11" s="53">
         <v>150626</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="52">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
         <v>110</v>
       </c>
       <c r="B12" s="53">
         <v>247061</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>111</v>
       </c>
       <c r="B13" s="53">
         <v>180968</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="53">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
         <v>113</v>
       </c>
       <c r="B14" s="53">
         <v>195584</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>114</v>
       </c>
       <c r="B15" s="53">
         <v>148655</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27" t="s">
         <v>115</v>
       </c>
       <c r="B16" s="53">
         <v>185369</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="53">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="47" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="118">
         <v>222724</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="53">
         <v>165376</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="52">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27" t="s">
         <v>117</v>
       </c>
       <c r="B19" s="53">
         <v>240977</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27" t="s">
         <v>118</v>
       </c>
       <c r="B20" s="53">
         <v>192794</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C20" s="53">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="28" t="s">
         <v>119</v>
       </c>
       <c r="B21" s="54">
         <v>216769</v>
+      </c>
+      <c r="C21" s="53">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -28385,10 +28465,10 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -28396,34 +28476,43 @@
     <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>232</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" s="50" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="51" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="52">
         <v>150000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C3" s="52">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>285</v>
       </c>
       <c r="B4" s="54">
         <v>150000</v>
+      </c>
+      <c r="C4" s="54">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -28436,9 +28525,11 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -28446,50 +28537,65 @@
     <col min="2" max="2" width="12.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>211</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" s="50" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="53">
         <v>150000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>117</v>
       </c>
       <c r="B4" s="53">
         <v>150000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="53">
         <v>150000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C5" s="53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>119</v>
       </c>
       <c r="B6" s="54">
         <v>150000</v>
+      </c>
+      <c r="C6" s="54">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_small_case_study.xlsx
+++ b/pareto/case_studies/strategic_small_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmira\Documents\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945F9B65-50DE-4FEC-BCA2-612B56A1F6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2445DC5-C258-4EB5-BD3F-1021C99450E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="62" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="68" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="289">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -975,7 +975,10 @@
     <t>Table with indication if the treatment technology is for desalination</t>
   </si>
   <si>
-    <t>Table of Removal Efficiency [%]</t>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Table of Removal Efficiency [%]. Note: The removal efficiency of a component can be estimated based on its concentration or its total load (flow times concentration). The default method for calculating removal efficacy is concentration-based. This configuration option is set prior to running the optimization. Refer to 'Water Treatment' in Model Library documentation.</t>
   </si>
 </sst>
 </file>
@@ -27752,22 +27755,22 @@
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>215</v>
       </c>
@@ -27777,8 +27780,11 @@
       <c r="C2" s="26" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2" s="26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>79</v>
       </c>
@@ -27786,10 +27792,13 @@
         <v>277</v>
       </c>
       <c r="C3" s="33">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="D3" s="33">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>128</v>
       </c>
@@ -27797,10 +27806,13 @@
         <v>277</v>
       </c>
       <c r="C4" s="33">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>79</v>
       </c>
@@ -27808,18 +27820,24 @@
         <v>278</v>
       </c>
       <c r="C5" s="33">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="33">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="90" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="34">
-        <v>0.05</v>
+      <c r="C6" s="33">
+        <v>0</v>
+      </c>
+      <c r="D6" s="33">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -28199,179 +28217,241 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>232</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" s="50" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="51" t="s">
         <v>112</v>
       </c>
       <c r="B3" s="52">
         <v>142277</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="52">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="53">
         <v>140998</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="53">
         <v>172490.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="53">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>104</v>
       </c>
       <c r="B6" s="53">
         <v>257547</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>105</v>
       </c>
       <c r="B7" s="53">
         <v>241833.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="52">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>106</v>
       </c>
       <c r="B8" s="53">
         <v>188503.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>107</v>
       </c>
       <c r="B9" s="53">
         <v>146716</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="53">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>108</v>
       </c>
       <c r="B10" s="53">
         <v>216563</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>109</v>
       </c>
       <c r="B11" s="53">
         <v>150626</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="52">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
         <v>110</v>
       </c>
       <c r="B12" s="53">
         <v>247061</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>111</v>
       </c>
       <c r="B13" s="53">
         <v>180968</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="53">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
         <v>113</v>
       </c>
       <c r="B14" s="53">
         <v>195584</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>114</v>
       </c>
       <c r="B15" s="53">
         <v>148655</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27" t="s">
         <v>115</v>
       </c>
       <c r="B16" s="53">
         <v>185369</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="53">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="47" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="118">
         <v>222724</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="53">
         <v>165376</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="52">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27" t="s">
         <v>117</v>
       </c>
       <c r="B19" s="53">
         <v>240977</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27" t="s">
         <v>118</v>
       </c>
       <c r="B20" s="53">
         <v>192794</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C20" s="53">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="28" t="s">
         <v>119</v>
       </c>
       <c r="B21" s="54">
         <v>216769</v>
+      </c>
+      <c r="C21" s="53">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -28385,10 +28465,10 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -28396,34 +28476,43 @@
     <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>232</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" s="50" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="51" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="52">
         <v>150000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C3" s="52">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>285</v>
       </c>
       <c r="B4" s="54">
         <v>150000</v>
+      </c>
+      <c r="C4" s="54">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -28436,9 +28525,11 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -28446,50 +28537,65 @@
     <col min="2" max="2" width="12.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>211</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" s="50" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="53">
         <v>150000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>117</v>
       </c>
       <c r="B4" s="53">
         <v>150000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="53">
         <v>150000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C5" s="53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>119</v>
       </c>
       <c r="B6" s="54">
         <v>150000</v>
+      </c>
+      <c r="C6" s="54">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_small_case_study.xlsx
+++ b/pareto/case_studies/strategic_small_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naresh\pareto\src\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C10C67A-7369-4541-94C8-C069E7AFAA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7F3502-D6E2-4335-BC9F-80DDED7881C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="834" firstSheet="25" activeTab="40" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-17580" yWindow="3705" windowWidth="7245" windowHeight="6615" tabRatio="834" firstSheet="72" activeTab="77" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -90,6 +90,8 @@
     <sheet name="PadWaterQuality" sheetId="104" r:id="rId75"/>
     <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId76"/>
     <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId77"/>
+    <sheet name="AirEmissionCoefficients" sheetId="117" r:id="rId78"/>
+    <sheet name="TreatmentEmissionCoefficients" sheetId="118" r:id="rId79"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="63" hidden="1">#REF!</definedName>
@@ -116,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3435" uniqueCount="300">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -983,6 +985,39 @@
   </si>
   <si>
     <t>Table of Removal Efficiency [%]. Note: The removal efficiency of a component can be estimated based on its concentration or its total load (flow times concentration). The default method for calculating removal efficacy is concentration-based. This configuration option is set prior to running the optimization. Refer to 'Water Treatment' in Model Library documentation.</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>PM 2.5</t>
+  </si>
+  <si>
+    <t>Trucking (g/hour)</t>
+  </si>
+  <si>
+    <t>Pipeline Operations (g/(bbl-mile))</t>
+  </si>
+  <si>
+    <t>Pipeline Installation (g/mile)</t>
+  </si>
+  <si>
+    <t>Disposal (g/bbl)</t>
+  </si>
+  <si>
+    <t>Storage (g/bbl-week)</t>
+  </si>
+  <si>
+    <t>FF</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1585,6 +1620,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1592,7 +1640,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1862,6 +1910,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="3" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2292,15 +2361,15 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2312,7 +2381,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="15"/>
       <c r="C3" s="16" t="s">
         <v>7</v>
@@ -2326,7 +2395,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="15"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2338,7 +2407,7 @@
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="15"/>
       <c r="C5" s="17" t="s">
         <v>13</v>
@@ -2352,7 +2421,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="15"/>
       <c r="C6" s="17" t="s">
         <v>11</v>
@@ -2366,7 +2435,7 @@
       <c r="J6" s="17"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="15"/>
       <c r="C7" s="17" t="s">
         <v>8</v>
@@ -2380,7 +2449,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="15"/>
       <c r="C8" s="17" t="s">
         <v>9</v>
@@ -2394,7 +2463,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="15"/>
       <c r="C9" s="17" t="s">
         <v>10</v>
@@ -2408,7 +2477,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
       <c r="C10" s="17" t="s">
         <v>49</v>
@@ -2422,7 +2491,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="15"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -2434,7 +2503,7 @@
       <c r="J11" s="17"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="15"/>
       <c r="C12" s="17" t="s">
         <v>14</v>
@@ -2448,7 +2517,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="C13" s="17" t="s">
         <v>12</v>
@@ -2462,7 +2531,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="15"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -2474,7 +2543,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="15"/>
       <c r="C15" s="17" t="s">
         <v>15</v>
@@ -2488,7 +2557,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="15"/>
       <c r="C16" s="17" t="s">
         <v>16</v>
@@ -2502,7 +2571,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
       <c r="C17" s="17" t="s">
         <v>17</v>
@@ -2516,7 +2585,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="15"/>
       <c r="C18" s="17" t="s">
         <v>18</v>
@@ -2530,7 +2599,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -2542,7 +2611,7 @@
       <c r="J19" s="17"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="15"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -2554,7 +2623,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="15"/>
       <c r="C21" s="19" t="s">
         <v>19</v>
@@ -2570,7 +2639,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="15"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -2582,7 +2651,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
       <c r="C23" s="20" t="s">
         <v>21</v>
@@ -2598,7 +2667,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="15"/>
       <c r="C24" s="20" t="s">
         <v>22</v>
@@ -2614,7 +2683,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="18"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
       <c r="C25" s="20" t="s">
         <v>23</v>
@@ -2630,7 +2699,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="15"/>
       <c r="C26" s="20" t="s">
         <v>27</v>
@@ -2646,7 +2715,7 @@
       <c r="J26" s="17"/>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="20" t="s">
         <v>29</v>
@@ -2662,7 +2731,7 @@
       <c r="J27" s="17"/>
       <c r="K27" s="18"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="15"/>
       <c r="C28" s="20" t="s">
         <v>31</v>
@@ -2678,7 +2747,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="15"/>
       <c r="C29" s="20" t="s">
         <v>32</v>
@@ -2694,7 +2763,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="18"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="15"/>
       <c r="C30" s="20" t="s">
         <v>35</v>
@@ -2710,7 +2779,7 @@
       <c r="J30" s="17"/>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="15"/>
       <c r="C31" s="20" t="s">
         <v>37</v>
@@ -2729,7 +2798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="15"/>
       <c r="C32" s="20" t="s">
         <v>40</v>
@@ -2745,7 +2814,7 @@
       <c r="J32" s="17"/>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="15"/>
       <c r="C33" s="20" t="s">
         <v>39</v>
@@ -2761,7 +2830,7 @@
       <c r="J33" s="17"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="15"/>
       <c r="C34" s="20" t="s">
         <v>43</v>
@@ -2777,7 +2846,7 @@
       <c r="J34" s="17"/>
       <c r="K34" s="18"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="15"/>
       <c r="C35" s="20" t="s">
         <v>45</v>
@@ -2793,7 +2862,7 @@
       <c r="J35" s="17"/>
       <c r="K35" s="18"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="15"/>
       <c r="C36" s="20" t="s">
         <v>46</v>
@@ -2809,7 +2878,7 @@
       <c r="J36" s="17"/>
       <c r="K36" s="18"/>
     </row>
-    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -2852,30 +2921,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>128</v>
       </c>
@@ -2899,30 +2968,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>278</v>
       </c>
@@ -2930,10 +2999,10 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
     </row>
   </sheetData>
@@ -2951,30 +3020,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -2995,30 +3064,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -3026,137 +3095,137 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
     </row>
   </sheetData>
@@ -3175,30 +3244,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
     </row>
   </sheetData>
@@ -3216,25 +3285,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>89</v>
       </c>
@@ -3254,35 +3323,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
     </row>
   </sheetData>
@@ -3300,33 +3369,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
     </row>
   </sheetData>
@@ -3344,18 +3413,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>209</v>
       </c>
@@ -3444,7 +3513,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>112</v>
       </c>
@@ -3479,7 +3548,7 @@
       <c r="AB3" s="7"/>
       <c r="AC3" s="29"/>
     </row>
-    <row r="4" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
@@ -3514,7 +3583,7 @@
       <c r="AB4" s="7"/>
       <c r="AC4" s="29"/>
     </row>
-    <row r="5" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
@@ -3549,7 +3618,7 @@
       <c r="AB5" s="7"/>
       <c r="AC5" s="29"/>
     </row>
-    <row r="6" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>104</v>
       </c>
@@ -3584,7 +3653,7 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="29"/>
     </row>
-    <row r="7" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>105</v>
       </c>
@@ -3621,7 +3690,7 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="29"/>
     </row>
-    <row r="8" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
@@ -3656,7 +3725,7 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="29"/>
     </row>
-    <row r="9" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>107</v>
       </c>
@@ -3691,7 +3760,7 @@
       <c r="AB9" s="7"/>
       <c r="AC9" s="29"/>
     </row>
-    <row r="10" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
@@ -3726,7 +3795,7 @@
       <c r="AB10" s="7"/>
       <c r="AC10" s="29"/>
     </row>
-    <row r="11" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>109</v>
       </c>
@@ -3761,7 +3830,7 @@
       <c r="AB11" s="7"/>
       <c r="AC11" s="29"/>
     </row>
-    <row r="12" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
@@ -3796,7 +3865,7 @@
       <c r="AB12" s="7"/>
       <c r="AC12" s="29"/>
     </row>
-    <row r="13" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>111</v>
       </c>
@@ -3831,7 +3900,7 @@
       <c r="AB13" s="7"/>
       <c r="AC13" s="29"/>
     </row>
-    <row r="14" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -3866,7 +3935,7 @@
       </c>
       <c r="AC14" s="29"/>
     </row>
-    <row r="15" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>114</v>
       </c>
@@ -3901,7 +3970,7 @@
       </c>
       <c r="AC15" s="29"/>
     </row>
-    <row r="16" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>115</v>
       </c>
@@ -3936,7 +4005,7 @@
       </c>
       <c r="AC16" s="29"/>
     </row>
-    <row r="17" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
         <v>116</v>
       </c>
@@ -3987,18 +4056,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -4087,7 +4156,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -4122,7 +4191,7 @@
       <c r="AB3" s="30"/>
       <c r="AC3" s="32"/>
     </row>
-    <row r="4" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -4157,7 +4226,7 @@
       <c r="AB4" s="30"/>
       <c r="AC4" s="32"/>
     </row>
-    <row r="5" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -4192,7 +4261,7 @@
       <c r="AB5" s="30"/>
       <c r="AC5" s="32"/>
     </row>
-    <row r="6" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -4241,61 +4310,61 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" s="38"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="39"/>
       <c r="F21" s="39"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="40"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="40"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="40"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="40"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="40"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="40"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="40"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="40"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="40"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="40"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="40"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="40"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="40"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="40"/>
     </row>
   </sheetData>
@@ -4313,18 +4382,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -4341,7 +4410,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -4350,7 +4419,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -4359,7 +4428,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -4368,7 +4437,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -4392,18 +4461,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>216</v>
       </c>
@@ -4492,7 +4561,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>130</v>
       </c>
@@ -4527,7 +4596,7 @@
       <c r="AB3" s="7"/>
       <c r="AC3" s="29"/>
     </row>
-    <row r="4" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>80</v>
       </c>
@@ -4566,7 +4635,7 @@
       <c r="AB4" s="7"/>
       <c r="AC4" s="29"/>
     </row>
-    <row r="5" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>81</v>
       </c>
@@ -4603,7 +4672,7 @@
       <c r="AB5" s="7"/>
       <c r="AC5" s="29"/>
     </row>
-    <row r="6" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>82</v>
       </c>
@@ -4640,7 +4709,7 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="29"/>
     </row>
-    <row r="7" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>83</v>
       </c>
@@ -4677,7 +4746,7 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="29"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>84</v>
       </c>
@@ -4714,7 +4783,7 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="29"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>85</v>
       </c>
@@ -4753,7 +4822,7 @@
       <c r="AB9" s="7"/>
       <c r="AC9" s="29"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>86</v>
       </c>
@@ -4790,7 +4859,7 @@
       <c r="AB10" s="7"/>
       <c r="AC10" s="29"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>131</v>
       </c>
@@ -4829,7 +4898,7 @@
       <c r="AB11" s="7"/>
       <c r="AC11" s="29"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>132</v>
       </c>
@@ -4864,7 +4933,7 @@
       <c r="AB12" s="7"/>
       <c r="AC12" s="29"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>133</v>
       </c>
@@ -4901,7 +4970,7 @@
       <c r="AB13" s="7"/>
       <c r="AC13" s="29"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>134</v>
       </c>
@@ -4936,7 +5005,7 @@
       <c r="AB14" s="7"/>
       <c r="AC14" s="29"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>135</v>
       </c>
@@ -4973,7 +5042,7 @@
       <c r="AB15" s="7"/>
       <c r="AC15" s="29"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>136</v>
       </c>
@@ -5012,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>137</v>
       </c>
@@ -5049,7 +5118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>138</v>
       </c>
@@ -5086,7 +5155,7 @@
       <c r="AB18" s="7"/>
       <c r="AC18" s="29"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>139</v>
       </c>
@@ -5121,7 +5190,7 @@
       <c r="AB19" s="7"/>
       <c r="AC19" s="29"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>140</v>
       </c>
@@ -5156,7 +5225,7 @@
       <c r="AB20" s="7"/>
       <c r="AC20" s="29"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>141</v>
       </c>
@@ -5193,7 +5262,7 @@
       <c r="AB21" s="7"/>
       <c r="AC21" s="29"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>142</v>
       </c>
@@ -5230,7 +5299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>143</v>
       </c>
@@ -5267,7 +5336,7 @@
       <c r="AB23" s="7"/>
       <c r="AC23" s="29"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>144</v>
       </c>
@@ -5306,7 +5375,7 @@
       <c r="AB24" s="7"/>
       <c r="AC24" s="29"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>145</v>
       </c>
@@ -5343,7 +5412,7 @@
       <c r="AB25" s="7"/>
       <c r="AC25" s="29"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>146</v>
       </c>
@@ -5380,7 +5449,7 @@
       <c r="AB26" s="7"/>
       <c r="AC26" s="29"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>147</v>
       </c>
@@ -5417,7 +5486,7 @@
       <c r="AB27" s="7"/>
       <c r="AC27" s="29"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>148</v>
       </c>
@@ -5454,7 +5523,7 @@
       </c>
       <c r="AC28" s="29"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>149</v>
       </c>
@@ -5489,7 +5558,7 @@
       <c r="AB29" s="7"/>
       <c r="AC29" s="29"/>
     </row>
-    <row r="30" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="27" t="s">
         <v>150</v>
       </c>
@@ -5546,18 +5615,18 @@
       <selection activeCell="B4" sqref="B4:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>216</v>
       </c>
@@ -5574,7 +5643,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>130</v>
       </c>
@@ -5583,7 +5652,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>80</v>
       </c>
@@ -5592,7 +5661,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>81</v>
       </c>
@@ -5601,7 +5670,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>82</v>
       </c>
@@ -5610,7 +5679,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>83</v>
       </c>
@@ -5619,7 +5688,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>84</v>
       </c>
@@ -5628,7 +5697,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>85</v>
       </c>
@@ -5637,7 +5706,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>86</v>
       </c>
@@ -5646,7 +5715,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>131</v>
       </c>
@@ -5655,7 +5724,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="29"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>132</v>
       </c>
@@ -5664,7 +5733,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="29"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>133</v>
       </c>
@@ -5673,7 +5742,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="29"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>134</v>
       </c>
@@ -5682,7 +5751,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="29"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>135</v>
       </c>
@@ -5691,7 +5760,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="29"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>136</v>
       </c>
@@ -5700,7 +5769,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="29"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>137</v>
       </c>
@@ -5709,7 +5778,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="29"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>138</v>
       </c>
@@ -5718,7 +5787,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="29"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>139</v>
       </c>
@@ -5727,7 +5796,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="29"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>140</v>
       </c>
@@ -5736,7 +5805,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="29"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>141</v>
       </c>
@@ -5745,7 +5814,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="29"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>142</v>
       </c>
@@ -5754,7 +5823,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="29"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>143</v>
       </c>
@@ -5763,7 +5832,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="29"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>144</v>
       </c>
@@ -5772,7 +5841,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="29"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>145</v>
       </c>
@@ -5781,7 +5850,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="29"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>146</v>
       </c>
@@ -5790,7 +5859,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="29"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>147</v>
       </c>
@@ -5799,7 +5868,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="29"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>148</v>
       </c>
@@ -5808,7 +5877,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>149</v>
       </c>
@@ -5817,7 +5886,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="29"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="27" t="s">
         <v>150</v>
       </c>
@@ -5841,18 +5910,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>216</v>
       </c>
@@ -5866,7 +5935,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>130</v>
       </c>
@@ -5876,7 +5945,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="29"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>80</v>
       </c>
@@ -5884,7 +5953,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="29"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>81</v>
       </c>
@@ -5892,7 +5961,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="29"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>82</v>
       </c>
@@ -5902,7 +5971,7 @@
       </c>
       <c r="D6" s="29"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>83</v>
       </c>
@@ -5910,7 +5979,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="29"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>84</v>
       </c>
@@ -5918,7 +5987,7 @@
       <c r="C8" s="7"/>
       <c r="D8" s="29"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>85</v>
       </c>
@@ -5926,7 +5995,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="29"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>86</v>
       </c>
@@ -5934,7 +6003,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="29"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>131</v>
       </c>
@@ -5942,7 +6011,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="29"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>132</v>
       </c>
@@ -5950,7 +6019,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="29"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>133</v>
       </c>
@@ -5958,7 +6027,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="29"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>134</v>
       </c>
@@ -5966,7 +6035,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="29"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>135</v>
       </c>
@@ -5974,7 +6043,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="29"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>136</v>
       </c>
@@ -5982,7 +6051,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="29"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>137</v>
       </c>
@@ -5990,7 +6059,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="29"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>138</v>
       </c>
@@ -5998,7 +6067,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="29"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>139</v>
       </c>
@@ -6008,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>140</v>
       </c>
@@ -6018,7 +6087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>141</v>
       </c>
@@ -6026,7 +6095,7 @@
       <c r="C21" s="7"/>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>142</v>
       </c>
@@ -6034,7 +6103,7 @@
       <c r="C22" s="7"/>
       <c r="D22" s="29"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>143</v>
       </c>
@@ -6042,7 +6111,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="29"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>144</v>
       </c>
@@ -6050,7 +6119,7 @@
       <c r="C24" s="7"/>
       <c r="D24" s="29"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>145</v>
       </c>
@@ -6058,7 +6127,7 @@
       <c r="C25" s="7"/>
       <c r="D25" s="29"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>146</v>
       </c>
@@ -6066,7 +6135,7 @@
       <c r="C26" s="7"/>
       <c r="D26" s="29"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>147</v>
       </c>
@@ -6074,7 +6143,7 @@
       <c r="C27" s="7"/>
       <c r="D27" s="29"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>148</v>
       </c>
@@ -6082,7 +6151,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="29"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>149</v>
       </c>
@@ -6090,7 +6159,7 @@
       <c r="C29" s="7"/>
       <c r="D29" s="29"/>
     </row>
-    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="27" t="s">
         <v>150</v>
       </c>
@@ -6114,18 +6183,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>216</v>
       </c>
@@ -6136,56 +6205,56 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="29"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="29"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="29"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>83</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="29"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="29"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="29"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>86</v>
       </c>
@@ -6194,84 +6263,84 @@
       </c>
       <c r="C10" s="29"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="29"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="29"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>133</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="29"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>134</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="29"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>135</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="29"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>136</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="29"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>137</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="29"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>138</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="29"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>139</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="29"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>140</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="29"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>141</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="29"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>142</v>
       </c>
@@ -6280,56 +6349,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>143</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="29"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>144</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="29"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>145</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="29"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>146</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="29"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>147</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="29"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>148</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="29"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>149</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="29"/>
     </row>
-    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="27" t="s">
         <v>150</v>
       </c>
@@ -6352,19 +6421,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>216</v>
       </c>
@@ -6375,7 +6444,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>130</v>
       </c>
@@ -6397,18 +6466,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>214</v>
       </c>
@@ -6416,13 +6485,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="32"/>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>285</v>
       </c>
@@ -6443,18 +6512,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="20.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>213</v>
       </c>
@@ -6471,7 +6540,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>66</v>
       </c>
@@ -6480,7 +6549,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>67</v>
       </c>
@@ -6489,7 +6558,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>122</v>
       </c>
@@ -6498,7 +6567,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>123</v>
       </c>
@@ -6507,7 +6576,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>124</v>
       </c>
@@ -6516,7 +6585,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
@@ -6525,7 +6594,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
@@ -6534,7 +6603,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>127</v>
       </c>
@@ -6559,18 +6628,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>215</v>
       </c>
@@ -6587,7 +6656,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>79</v>
       </c>
@@ -6596,7 +6665,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>128</v>
       </c>
@@ -6620,19 +6689,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>215</v>
       </c>
@@ -6643,7 +6712,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>79</v>
       </c>
@@ -6652,7 +6721,7 @@
       </c>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>128</v>
       </c>
@@ -6676,33 +6745,33 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="92.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="48" width="9.28515625" style="1"/>
-    <col min="49" max="49" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="92.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.33203125" style="1"/>
+    <col min="49" max="49" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>222</v>
       </c>
@@ -6722,7 +6791,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>236</v>
       </c>
@@ -6752,7 +6821,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>239</v>
       </c>
@@ -6776,7 +6845,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>243</v>
       </c>
@@ -6794,7 +6863,7 @@
       <c r="J5" s="60"/>
       <c r="K5" s="62"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>245</v>
       </c>
@@ -6818,7 +6887,7 @@
       <c r="J6" s="60"/>
       <c r="K6" s="62"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>248</v>
       </c>
@@ -6842,7 +6911,7 @@
       <c r="J7" s="60"/>
       <c r="K7" s="62"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>252</v>
       </c>
@@ -6881,7 +6950,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
         <v>255</v>
       </c>
@@ -6932,7 +7001,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AT10" s="1" t="s">
         <v>269</v>
       </c>
@@ -6955,7 +7024,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AU11" s="1" t="s">
         <v>264</v>
       </c>
@@ -6963,7 +7032,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AU12" s="1" t="s">
         <v>241</v>
       </c>
@@ -7011,17 +7080,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>214</v>
       </c>
@@ -7038,7 +7107,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>78</v>
       </c>
@@ -7051,7 +7120,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>285</v>
       </c>
@@ -7064,7 +7133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
     </row>
   </sheetData>
@@ -7081,18 +7150,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>215</v>
       </c>
@@ -7100,13 +7169,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>128</v>
       </c>
@@ -7127,18 +7196,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>209</v>
       </c>
@@ -7155,7 +7224,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>112</v>
       </c>
@@ -7164,7 +7233,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
@@ -7173,7 +7242,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
@@ -7182,7 +7251,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>104</v>
       </c>
@@ -7191,7 +7260,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>105</v>
       </c>
@@ -7200,7 +7269,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
@@ -7209,7 +7278,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>107</v>
       </c>
@@ -7218,7 +7287,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
@@ -7227,7 +7296,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>109</v>
       </c>
@@ -7236,7 +7305,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="29"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
@@ -7245,7 +7314,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="29"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>111</v>
       </c>
@@ -7254,7 +7323,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="29"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -7263,7 +7332,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="29"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>114</v>
       </c>
@@ -7272,7 +7341,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="29"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>115</v>
       </c>
@@ -7281,7 +7350,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="29"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
         <v>116</v>
       </c>
@@ -7306,18 +7375,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>213</v>
       </c>
@@ -7334,7 +7403,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>66</v>
       </c>
@@ -7345,7 +7414,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>67</v>
       </c>
@@ -7356,7 +7425,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>122</v>
       </c>
@@ -7367,7 +7436,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>123</v>
       </c>
@@ -7378,7 +7447,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>124</v>
       </c>
@@ -7389,7 +7458,7 @@
       </c>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
@@ -7400,7 +7469,7 @@
       </c>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
@@ -7411,7 +7480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>127</v>
       </c>
@@ -7437,18 +7506,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>209</v>
       </c>
@@ -7462,7 +7531,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>112</v>
       </c>
@@ -7476,7 +7545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
@@ -7490,7 +7559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
@@ -7504,7 +7573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>104</v>
       </c>
@@ -7518,7 +7587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>105</v>
       </c>
@@ -7532,7 +7601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
@@ -7546,7 +7615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>107</v>
       </c>
@@ -7560,7 +7629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
@@ -7574,7 +7643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>109</v>
       </c>
@@ -7588,7 +7657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
@@ -7602,7 +7671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>111</v>
       </c>
@@ -7616,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -7630,7 +7699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>114</v>
       </c>
@@ -7644,7 +7713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>115</v>
       </c>
@@ -7658,7 +7727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
         <v>116</v>
       </c>
@@ -7687,18 +7756,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -7712,7 +7781,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -7726,7 +7795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -7740,7 +7809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -7754,7 +7823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -7783,18 +7852,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -7811,7 +7880,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -7820,7 +7889,7 @@
       <c r="D3" s="30"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -7829,7 +7898,7 @@
       <c r="D4" s="30"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -7838,7 +7907,7 @@
       <c r="D5" s="30"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -7862,18 +7931,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -7884,7 +7953,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
@@ -7906,19 +7975,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$9, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Water Demand for Completions Sites over weeks [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -8079,7 +8148,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -8156,7 +8225,7 @@
       <c r="AZ3" s="34"/>
       <c r="BA3" s="35"/>
     </row>
-    <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -8241,7 +8310,7 @@
       <c r="AZ4" s="34"/>
       <c r="BA4" s="35"/>
     </row>
-    <row r="5" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -8314,7 +8383,7 @@
       <c r="AZ5" s="34"/>
       <c r="BA5" s="35"/>
     </row>
-    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -8405,7 +8474,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="F11" s="10"/>
     </row>
   </sheetData>
@@ -8424,22 +8493,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Production Rate Forecasts by Pads [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>209</v>
       </c>
@@ -8600,7 +8669,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>112</v>
       </c>
@@ -8813,7 +8882,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
@@ -9026,7 +9095,7 @@
         <v>22826.547097429568</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
@@ -9239,7 +9308,7 @@
         <v>20853.895411663008</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>104</v>
       </c>
@@ -9452,7 +9521,7 @@
         <v>12936.237157458605</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>105</v>
       </c>
@@ -9665,7 +9734,7 @@
         <v>10093.208985005042</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
@@ -9878,7 +9947,7 @@
         <v>25030.845039782169</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>107</v>
       </c>
@@ -10091,7 +10160,7 @@
         <v>21394.248548185435</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
@@ -10304,7 +10373,7 @@
         <v>19620.846059435706</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>109</v>
       </c>
@@ -10517,7 +10586,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
@@ -10730,7 +10799,7 @@
         <v>19056.740567787925</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>111</v>
       </c>
@@ -10943,7 +11012,7 @@
         <v>10459.139487125793</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -11156,7 +11225,7 @@
         <v>11226.398478579069</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>114</v>
       </c>
@@ -11369,7 +11438,7 @@
         <v>9948.0491512241751</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>115</v>
       </c>
@@ -11582,7 +11651,7 @@
         <v>13401.937357783543</v>
       </c>
     </row>
-    <row r="17" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
         <v>116</v>
       </c>
@@ -11811,95 +11880,95 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.33203125" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>116</v>
       </c>
@@ -11920,22 +11989,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="6" customWidth="1"/>
-    <col min="2" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Flowback Rate Forecasts by Pads [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -12096,7 +12165,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -12273,7 +12342,7 @@
         <v>38495.240630664819</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -12378,7 +12447,7 @@
         <v>63660.095793436725</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -12528,7 +12597,7 @@
         <v>56817.904350212186</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -12585,7 +12654,7 @@
       <c r="AZ6" s="36"/>
       <c r="BA6" s="37"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="F8" s="10"/>
     </row>
   </sheetData>
@@ -12602,26 +12671,26 @@
   </sheetPr>
   <dimension ref="A1:AN56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F39" sqref="F39:Y41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1"/>
-    <col min="2" max="5" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="33" width="9.28515625" style="1"/>
-    <col min="34" max="37" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="1"/>
+    <col min="2" max="5" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="33" width="9.33203125" style="1"/>
+    <col min="34" max="37" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Pipeline Capacity between Sites  [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
@@ -12743,7 +12812,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -12789,7 +12858,7 @@
       <c r="AM3" s="34"/>
       <c r="AN3" s="35"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -12835,7 +12904,7 @@
       <c r="AM4" s="34"/>
       <c r="AN4" s="35"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -12881,7 +12950,7 @@
       <c r="AM5" s="34"/>
       <c r="AN5" s="35"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
         <v>119</v>
       </c>
@@ -12925,7 +12994,7 @@
       <c r="AM6" s="97"/>
       <c r="AN6" s="44"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>130</v>
       </c>
@@ -12973,7 +13042,7 @@
       <c r="AM7" s="34"/>
       <c r="AN7" s="35"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>80</v>
       </c>
@@ -13021,7 +13090,7 @@
       <c r="AM8" s="34"/>
       <c r="AN8" s="35"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>81</v>
       </c>
@@ -13067,7 +13136,7 @@
       <c r="AM9" s="34"/>
       <c r="AN9" s="35"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>82</v>
       </c>
@@ -13115,7 +13184,7 @@
       </c>
       <c r="AN10" s="35"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>83</v>
       </c>
@@ -13161,7 +13230,7 @@
       <c r="AM11" s="34"/>
       <c r="AN11" s="35"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>84</v>
       </c>
@@ -13207,7 +13276,7 @@
       <c r="AM12" s="34"/>
       <c r="AN12" s="35"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>85</v>
       </c>
@@ -13255,7 +13324,7 @@
       <c r="AM13" s="34"/>
       <c r="AN13" s="35"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>86</v>
       </c>
@@ -13301,7 +13370,7 @@
       <c r="AM14" s="34"/>
       <c r="AN14" s="35"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>131</v>
       </c>
@@ -13349,7 +13418,7 @@
       <c r="AM15" s="34"/>
       <c r="AN15" s="35"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>132</v>
       </c>
@@ -13393,7 +13462,7 @@
       <c r="AM16" s="34"/>
       <c r="AN16" s="35"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>133</v>
       </c>
@@ -13439,7 +13508,7 @@
       <c r="AM17" s="34"/>
       <c r="AN17" s="35"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>134</v>
       </c>
@@ -13485,7 +13554,7 @@
       <c r="AM18" s="34"/>
       <c r="AN18" s="35"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>135</v>
       </c>
@@ -13531,7 +13600,7 @@
       <c r="AM19" s="34"/>
       <c r="AN19" s="35"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>136</v>
       </c>
@@ -13577,7 +13646,7 @@
       <c r="AM20" s="34"/>
       <c r="AN20" s="35"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>137</v>
       </c>
@@ -13625,7 +13694,7 @@
       <c r="AM21" s="34"/>
       <c r="AN21" s="35"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>138</v>
       </c>
@@ -13671,7 +13740,7 @@
       <c r="AM22" s="34"/>
       <c r="AN22" s="35"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>139</v>
       </c>
@@ -13717,7 +13786,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>140</v>
       </c>
@@ -13765,7 +13834,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>141</v>
       </c>
@@ -13811,7 +13880,7 @@
       <c r="AM25" s="34"/>
       <c r="AN25" s="35"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>142</v>
       </c>
@@ -13861,7 +13930,7 @@
       <c r="AM26" s="34"/>
       <c r="AN26" s="35"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>143</v>
       </c>
@@ -13907,7 +13976,7 @@
       <c r="AM27" s="34"/>
       <c r="AN27" s="35"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>144</v>
       </c>
@@ -13953,7 +14022,7 @@
       <c r="AM28" s="34"/>
       <c r="AN28" s="35"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>145</v>
       </c>
@@ -13999,7 +14068,7 @@
       <c r="AM29" s="34"/>
       <c r="AN29" s="35"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>146</v>
       </c>
@@ -14045,7 +14114,7 @@
       <c r="AM30" s="34"/>
       <c r="AN30" s="35"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
         <v>147</v>
       </c>
@@ -14091,7 +14160,7 @@
       <c r="AM31" s="34"/>
       <c r="AN31" s="35"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
         <v>148</v>
       </c>
@@ -14137,7 +14206,7 @@
       <c r="AM32" s="34"/>
       <c r="AN32" s="35"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
         <v>149</v>
       </c>
@@ -14181,7 +14250,7 @@
       <c r="AM33" s="34"/>
       <c r="AN33" s="35"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
         <v>150</v>
       </c>
@@ -14225,7 +14294,7 @@
       <c r="AM34" s="97"/>
       <c r="AN34" s="44"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>79</v>
       </c>
@@ -14271,7 +14340,7 @@
       <c r="AM35" s="34"/>
       <c r="AN35" s="35"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
         <v>128</v>
       </c>
@@ -14317,7 +14386,7 @@
       <c r="AM36" s="97"/>
       <c r="AN36" s="44"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
         <v>78</v>
       </c>
@@ -14365,7 +14434,7 @@
       <c r="AM37" s="34"/>
       <c r="AN37" s="35"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
         <v>285</v>
       </c>
@@ -14413,7 +14482,7 @@
       <c r="AM38" s="97"/>
       <c r="AN38" s="44"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>121</v>
       </c>
@@ -14457,7 +14526,7 @@
       <c r="AM39" s="34"/>
       <c r="AN39" s="35"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>51</v>
       </c>
@@ -14501,7 +14570,7 @@
       <c r="AM40" s="34"/>
       <c r="AN40" s="35"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A41" s="43" t="s">
         <v>120</v>
       </c>
@@ -14545,7 +14614,7 @@
       <c r="AM41" s="97"/>
       <c r="AN41" s="44"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
         <v>112</v>
       </c>
@@ -14591,7 +14660,7 @@
       <c r="AM42" s="34"/>
       <c r="AN42" s="35"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>3</v>
       </c>
@@ -14637,7 +14706,7 @@
       <c r="AM43" s="34"/>
       <c r="AN43" s="35"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>4</v>
       </c>
@@ -14683,7 +14752,7 @@
       <c r="AM44" s="34"/>
       <c r="AN44" s="35"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>104</v>
       </c>
@@ -14729,7 +14798,7 @@
       <c r="AM45" s="34"/>
       <c r="AN45" s="35"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>105</v>
       </c>
@@ -14777,7 +14846,7 @@
       <c r="AM46" s="34"/>
       <c r="AN46" s="35"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>106</v>
       </c>
@@ -14823,7 +14892,7 @@
       <c r="AM47" s="34"/>
       <c r="AN47" s="35"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>107</v>
       </c>
@@ -14869,7 +14938,7 @@
       <c r="AM48" s="34"/>
       <c r="AN48" s="35"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>108</v>
       </c>
@@ -14915,7 +14984,7 @@
       <c r="AM49" s="34"/>
       <c r="AN49" s="35"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>109</v>
       </c>
@@ -14961,7 +15030,7 @@
       <c r="AM50" s="34"/>
       <c r="AN50" s="35"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
         <v>110</v>
       </c>
@@ -15007,7 +15076,7 @@
       <c r="AM51" s="34"/>
       <c r="AN51" s="35"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
         <v>111</v>
       </c>
@@ -15053,7 +15122,7 @@
       <c r="AM52" s="34"/>
       <c r="AN52" s="35"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>113</v>
       </c>
@@ -15099,7 +15168,7 @@
       <c r="AM53" s="34"/>
       <c r="AN53" s="35"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>114</v>
       </c>
@@ -15145,7 +15214,7 @@
       <c r="AM54" s="34"/>
       <c r="AN54" s="35"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>115</v>
       </c>
@@ -15191,7 +15260,7 @@
       <c r="AM55" s="34"/>
       <c r="AN55" s="35"/>
     </row>
-    <row r="56" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="27" t="s">
         <v>116</v>
       </c>
@@ -15253,19 +15322,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Disposal Capacity  [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>212</v>
       </c>
@@ -15273,7 +15342,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>121</v>
       </c>
@@ -15281,7 +15350,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>51</v>
       </c>
@@ -15289,7 +15358,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>120</v>
       </c>
@@ -15312,20 +15381,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>214</v>
       </c>
@@ -15333,7 +15402,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>78</v>
       </c>
@@ -15341,7 +15410,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>285</v>
       </c>
@@ -15364,19 +15433,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Treatment Capacity [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>215</v>
       </c>
@@ -15387,7 +15456,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>79</v>
       </c>
@@ -15398,7 +15467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>128</v>
       </c>
@@ -15424,19 +15493,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Sourcing Availability [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>213</v>
       </c>
@@ -15597,7 +15666,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>66</v>
       </c>
@@ -15758,7 +15827,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>67</v>
       </c>
@@ -15919,7 +15988,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>122</v>
       </c>
@@ -16080,7 +16149,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>123</v>
       </c>
@@ -16241,7 +16310,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="7" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>124</v>
       </c>
@@ -16402,7 +16471,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="8" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
@@ -16563,7 +16632,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
@@ -16724,7 +16793,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>127</v>
       </c>
@@ -16885,7 +16954,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="F15" s="10"/>
     </row>
   </sheetData>
@@ -16904,20 +16973,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Pad Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -16925,7 +16994,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -16933,7 +17002,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -16941,7 +17010,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -16949,7 +17018,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -16972,19 +17041,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pad Offloading Capacity [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -16992,7 +17061,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -17000,7 +17069,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -17008,7 +17077,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -17016,7 +17085,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -17040,20 +17109,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]", " (absence of node or empty cell signifies no max capacity)")</f>
         <v>Table of Node Capacity Capacity [bbl/week] (absence of node or empty cell signifies no max capacity)</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
@@ -17061,7 +17130,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>130</v>
       </c>
@@ -17082,20 +17151,20 @@
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
     <col min="2" max="53" width="9" style="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.28515625" style="1"/>
+    <col min="54" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Operating Capacity of Disposal Site [%]")</f>
         <v>Operating Capacity of Disposal Site [%]</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
         <v>212</v>
       </c>
@@ -17256,7 +17325,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>121</v>
       </c>
@@ -17417,7 +17486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>51</v>
       </c>
@@ -17578,7 +17647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:56" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>120</v>
       </c>
@@ -17740,10 +17809,10 @@
       </c>
       <c r="BD5" s="72"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B9" s="73"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
         <v>279</v>
       </c>
@@ -17763,40 +17832,40 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.33203125" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
@@ -17804,52 +17873,52 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>65</v>
       </c>
@@ -17870,19 +17939,19 @@
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>212</v>
       </c>
@@ -17890,7 +17959,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>121</v>
       </c>
@@ -17898,7 +17967,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>51</v>
       </c>
@@ -17906,7 +17975,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>120</v>
       </c>
@@ -17930,20 +17999,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>215</v>
       </c>
@@ -17954,7 +18023,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>79</v>
       </c>
@@ -17965,7 +18034,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>128</v>
       </c>
@@ -17976,7 +18045,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>79</v>
       </c>
@@ -17987,7 +18056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>128</v>
       </c>
@@ -17998,22 +18067,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -18033,19 +18102,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Reuse Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -18053,7 +18122,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -18061,7 +18130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -18069,7 +18138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -18077,7 +18146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -18100,20 +18169,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="1"/>
+    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>208</v>
       </c>
@@ -18121,7 +18190,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>130</v>
       </c>
@@ -18143,19 +18212,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Souring Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>213</v>
       </c>
@@ -18163,7 +18232,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>66</v>
       </c>
@@ -18171,7 +18240,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>67</v>
       </c>
@@ -18179,7 +18248,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>122</v>
       </c>
@@ -18187,7 +18256,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>123</v>
       </c>
@@ -18195,7 +18264,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>124</v>
       </c>
@@ -18203,7 +18272,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
@@ -18211,7 +18280,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
@@ -18219,7 +18288,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>127</v>
       </c>
@@ -18242,18 +18311,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", "hour","]")</f>
         <v>Table of Trucking Hourly Cost [USD/hour]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
@@ -18261,7 +18330,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>112</v>
       </c>
@@ -18269,7 +18338,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
@@ -18277,7 +18346,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
@@ -18285,7 +18354,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>104</v>
       </c>
@@ -18293,7 +18362,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>105</v>
       </c>
@@ -18301,7 +18370,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
@@ -18309,7 +18378,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>107</v>
       </c>
@@ -18317,7 +18386,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
@@ -18325,7 +18394,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>109</v>
       </c>
@@ -18333,7 +18402,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
@@ -18341,7 +18410,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>111</v>
       </c>
@@ -18349,7 +18418,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -18357,7 +18426,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>114</v>
       </c>
@@ -18365,7 +18434,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>115</v>
       </c>
@@ -18373,7 +18442,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>116</v>
       </c>
@@ -18381,7 +18450,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>5</v>
       </c>
@@ -18389,7 +18458,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>117</v>
       </c>
@@ -18397,7 +18466,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>118</v>
       </c>
@@ -18405,7 +18474,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
         <v>119</v>
       </c>
@@ -18413,7 +18482,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>66</v>
       </c>
@@ -18421,7 +18490,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>67</v>
       </c>
@@ -18429,7 +18498,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>122</v>
       </c>
@@ -18437,7 +18506,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>123</v>
       </c>
@@ -18445,7 +18514,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>124</v>
       </c>
@@ -18453,7 +18522,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>125</v>
       </c>
@@ -18461,7 +18530,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>126</v>
       </c>
@@ -18469,7 +18538,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="27" t="s">
         <v>127</v>
       </c>
@@ -18493,17 +18562,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
@@ -18517,7 +18586,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>112</v>
       </c>
@@ -18531,7 +18600,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
@@ -18545,7 +18614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
@@ -18559,7 +18628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>104</v>
       </c>
@@ -18573,7 +18642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>105</v>
       </c>
@@ -18587,7 +18656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
@@ -18601,7 +18670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>107</v>
       </c>
@@ -18615,7 +18684,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
@@ -18629,7 +18698,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>109</v>
       </c>
@@ -18643,7 +18712,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
@@ -18657,7 +18726,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>111</v>
       </c>
@@ -18671,7 +18740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -18685,7 +18754,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>114</v>
       </c>
@@ -18699,7 +18768,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>115</v>
       </c>
@@ -18713,7 +18782,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>116</v>
       </c>
@@ -18727,7 +18796,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>5</v>
       </c>
@@ -18741,7 +18810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>117</v>
       </c>
@@ -18755,7 +18824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>118</v>
       </c>
@@ -18769,7 +18838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
         <v>119</v>
       </c>
@@ -18799,19 +18868,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/week)]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>212</v>
       </c>
@@ -18819,7 +18888,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>121</v>
       </c>
@@ -18827,7 +18896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>51</v>
       </c>
@@ -18835,7 +18904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>120</v>
       </c>
@@ -18859,19 +18928,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="21.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>219</v>
       </c>
@@ -18879,7 +18948,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>92</v>
       </c>
@@ -18902,19 +18971,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>214</v>
       </c>
@@ -18922,7 +18991,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>78</v>
       </c>
@@ -18930,7 +18999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>285</v>
       </c>
@@ -18953,30 +19022,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>117</v>
       </c>
@@ -18984,12 +19053,12 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>119</v>
       </c>
@@ -19010,19 +19079,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Increments [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>218</v>
       </c>
@@ -19030,7 +19099,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>89</v>
       </c>
@@ -19053,21 +19122,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="1"/>
+    <col min="5" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Treatment Capacity Expansion Cost [USD/(bbl/week)]</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>215</v>
       </c>
@@ -19081,7 +19150,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>79</v>
       </c>
@@ -19095,7 +19164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>128</v>
       </c>
@@ -19109,7 +19178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>79</v>
       </c>
@@ -19123,7 +19192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>128</v>
       </c>
@@ -19152,20 +19221,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Capacity Expansion Increments  [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>220</v>
       </c>
@@ -19176,7 +19245,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>277</v>
       </c>
@@ -19187,7 +19256,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>278</v>
       </c>
@@ -19213,12 +19282,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Pipeline Expansion Cost [USD/(inch-mile)]</v>
@@ -19226,7 +19295,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>222</v>
       </c>
@@ -19234,7 +19303,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>226</v>
       </c>
@@ -19256,9 +19325,9 @@
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Distances [mile]</v>
@@ -19266,7 +19335,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
@@ -19388,7 +19457,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>112</v>
       </c>
@@ -19508,7 +19577,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
@@ -19628,7 +19697,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
@@ -19748,7 +19817,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>104</v>
       </c>
@@ -19868,7 +19937,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>105</v>
       </c>
@@ -19988,7 +20057,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
@@ -20108,7 +20177,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>107</v>
       </c>
@@ -20228,7 +20297,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
@@ -20348,7 +20417,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>109</v>
       </c>
@@ -20468,7 +20537,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
@@ -20588,7 +20657,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>111</v>
       </c>
@@ -20708,7 +20777,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -20828,7 +20897,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>114</v>
       </c>
@@ -20948,7 +21017,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>115</v>
       </c>
@@ -21068,7 +21137,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>116</v>
       </c>
@@ -21188,7 +21257,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>5</v>
       </c>
@@ -21304,7 +21373,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>117</v>
       </c>
@@ -21420,7 +21489,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>118</v>
       </c>
@@ -21538,7 +21607,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
         <v>119</v>
       </c>
@@ -21654,7 +21723,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>130</v>
       </c>
@@ -21774,7 +21843,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>80</v>
       </c>
@@ -21894,7 +21963,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>81</v>
       </c>
@@ -22014,7 +22083,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>82</v>
       </c>
@@ -22134,7 +22203,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>83</v>
       </c>
@@ -22254,7 +22323,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>84</v>
       </c>
@@ -22374,7 +22443,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>85</v>
       </c>
@@ -22494,7 +22563,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>86</v>
       </c>
@@ -22614,7 +22683,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>131</v>
       </c>
@@ -22734,7 +22803,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
         <v>132</v>
       </c>
@@ -22852,7 +22921,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
         <v>133</v>
       </c>
@@ -22972,7 +23041,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
         <v>134</v>
       </c>
@@ -23088,7 +23157,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
         <v>135</v>
       </c>
@@ -23208,7 +23277,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>136</v>
       </c>
@@ -23328,7 +23397,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>137</v>
       </c>
@@ -23448,7 +23517,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
         <v>138</v>
       </c>
@@ -23568,7 +23637,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
         <v>139</v>
       </c>
@@ -23688,7 +23757,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>140</v>
       </c>
@@ -23808,7 +23877,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>141</v>
       </c>
@@ -23928,7 +23997,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
         <v>142</v>
       </c>
@@ -24048,7 +24117,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
         <v>143</v>
       </c>
@@ -24168,7 +24237,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>144</v>
       </c>
@@ -24288,7 +24357,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>145</v>
       </c>
@@ -24406,7 +24475,7 @@
       </c>
       <c r="AN44" s="29"/>
     </row>
-    <row r="45" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>146</v>
       </c>
@@ -24526,7 +24595,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>147</v>
       </c>
@@ -24646,7 +24715,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>148</v>
       </c>
@@ -24766,7 +24835,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>149</v>
       </c>
@@ -24886,7 +24955,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="49" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="43" t="s">
         <v>150</v>
       </c>
@@ -25006,7 +25075,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="50" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>78</v>
       </c>
@@ -25124,7 +25193,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="51" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="43" t="s">
         <v>285</v>
       </c>
@@ -25174,7 +25243,7 @@
         <v>46.479550000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
         <v>66</v>
       </c>
@@ -25294,7 +25363,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>67</v>
       </c>
@@ -25414,7 +25483,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>122</v>
       </c>
@@ -25534,7 +25603,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>123</v>
       </c>
@@ -25654,7 +25723,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
         <v>124</v>
       </c>
@@ -25774,7 +25843,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
         <v>125</v>
       </c>
@@ -25894,7 +25963,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="58" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
         <v>126</v>
       </c>
@@ -26014,7 +26083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="43" t="s">
         <v>127</v>
       </c>
@@ -26134,7 +26203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
         <v>79</v>
       </c>
@@ -26246,7 +26315,7 @@
       <c r="AM60" s="7"/>
       <c r="AN60" s="29"/>
     </row>
-    <row r="61" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="27" t="s">
         <v>128</v>
       </c>
@@ -26372,9 +26441,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/week)]</v>
@@ -26382,7 +26451,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
@@ -26393,7 +26462,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>130</v>
       </c>
@@ -26404,7 +26473,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>80</v>
       </c>
@@ -26429,19 +26498,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="20.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Capacity Expansion Increments [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>217</v>
       </c>
@@ -26449,7 +26518,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>87</v>
       </c>
@@ -26472,19 +26541,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="20.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Diameters [inch]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>217</v>
       </c>
@@ -26492,7 +26561,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>87</v>
       </c>
@@ -26517,19 +26586,19 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>215</v>
       </c>
@@ -26540,7 +26609,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>79</v>
       </c>
@@ -26551,7 +26620,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>128</v>
       </c>
@@ -26562,7 +26631,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>79</v>
       </c>
@@ -26573,7 +26642,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>128</v>
       </c>
@@ -26584,22 +26653,22 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -26621,16 +26690,16 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>215</v>
       </c>
@@ -26644,7 +26713,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>79</v>
       </c>
@@ -26658,7 +26727,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>128</v>
       </c>
@@ -26672,7 +26741,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>79</v>
       </c>
@@ -26686,7 +26755,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>128</v>
       </c>
@@ -26714,33 +26783,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.28515625" style="1"/>
-    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.33203125" style="1"/>
+    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>120</v>
       </c>
@@ -26761,17 +26830,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
         <v>280</v>
       </c>
@@ -26779,7 +26848,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="83" t="s">
         <v>277</v>
       </c>
@@ -26787,7 +26856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="84" t="s">
         <v>278</v>
       </c>
@@ -26809,17 +26878,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>215</v>
       </c>
@@ -26827,7 +26896,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>79</v>
       </c>
@@ -26835,7 +26904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>128</v>
       </c>
@@ -26843,19 +26912,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
     </row>
@@ -26873,17 +26942,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -26891,7 +26960,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -26899,7 +26968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -26907,7 +26976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -26915,7 +26984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -26937,17 +27006,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>222</v>
       </c>
@@ -26955,7 +27024,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>224</v>
       </c>
@@ -26963,7 +27032,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>225</v>
       </c>
@@ -26985,17 +27054,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>222</v>
       </c>
@@ -27003,7 +27072,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>230</v>
       </c>
@@ -27011,7 +27080,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>231</v>
       </c>
@@ -27035,18 +27104,18 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>232</v>
       </c>
@@ -27057,7 +27126,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>112</v>
       </c>
@@ -27068,7 +27137,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
@@ -27079,7 +27148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
@@ -27090,7 +27159,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>104</v>
       </c>
@@ -27101,7 +27170,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>105</v>
       </c>
@@ -27112,7 +27181,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
@@ -27123,7 +27192,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>107</v>
       </c>
@@ -27134,7 +27203,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
@@ -27145,7 +27214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>109</v>
       </c>
@@ -27156,7 +27225,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
@@ -27167,7 +27236,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>111</v>
       </c>
@@ -27178,7 +27247,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>113</v>
       </c>
@@ -27189,7 +27258,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>114</v>
       </c>
@@ -27200,7 +27269,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>115</v>
       </c>
@@ -27211,7 +27280,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>116</v>
       </c>
@@ -27222,7 +27291,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>5</v>
       </c>
@@ -27233,7 +27302,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>117</v>
       </c>
@@ -27244,7 +27313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>118</v>
       </c>
@@ -27255,7 +27324,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
         <v>119</v>
       </c>
@@ -27283,18 +27352,18 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>232</v>
       </c>
@@ -27305,7 +27374,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>78</v>
       </c>
@@ -27316,7 +27385,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>285</v>
       </c>
@@ -27343,19 +27412,19 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>211</v>
       </c>
@@ -27366,7 +27435,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -27377,7 +27446,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -27388,7 +27457,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -27399,7 +27468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>119</v>
       </c>
@@ -27412,6 +27481,270 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275D251B-4BF3-4C96-9CAD-E0F25FE4A639}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="62.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Air Emissions Coefficients ")</f>
+        <v xml:space="preserve">Table of Air Emissions Coefficients </v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="109">
+        <v>2035000</v>
+      </c>
+      <c r="C3" s="109">
+        <v>35.75</v>
+      </c>
+      <c r="D3" s="109">
+        <v>12649.999999999998</v>
+      </c>
+      <c r="E3" s="109">
+        <v>770.00000000000011</v>
+      </c>
+      <c r="F3" s="109">
+        <v>120.99999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="109">
+        <v>22</v>
+      </c>
+      <c r="C4" s="109">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D4" s="109">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E4" s="109">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="F4" s="110">
+        <v>8.5999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="109">
+        <v>310000000</v>
+      </c>
+      <c r="C5" s="109">
+        <v>2800</v>
+      </c>
+      <c r="D5" s="109">
+        <v>190000</v>
+      </c>
+      <c r="E5" s="109">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="110">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="109">
+        <v>970</v>
+      </c>
+      <c r="C6" s="109">
+        <v>0.13</v>
+      </c>
+      <c r="D6" s="109">
+        <v>9.5</v>
+      </c>
+      <c r="E6" s="109">
+        <v>2.8</v>
+      </c>
+      <c r="F6" s="110">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" s="111">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="111">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D7" s="111">
+        <v>2</v>
+      </c>
+      <c r="E7" s="111">
+        <v>0.65</v>
+      </c>
+      <c r="F7" s="112">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C90C8A-98EC-4FC6-BDDC-E7C5C17F1BE2}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Air Emissions Coefficients  for Treatment Technologies [emissions/volume time]")</f>
+        <v>Table of Air Emissions Coefficients  for Treatment Technologies [emissions/volume time]</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="113" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="114" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="109">
+        <v>9600</v>
+      </c>
+      <c r="C3" s="109">
+        <v>1.45</v>
+      </c>
+      <c r="D3" s="109">
+        <v>12.8</v>
+      </c>
+      <c r="E3" s="109">
+        <v>13.5</v>
+      </c>
+      <c r="F3" s="110">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="114" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="109">
+        <v>9600</v>
+      </c>
+      <c r="C4" s="109">
+        <v>1.45</v>
+      </c>
+      <c r="D4" s="109">
+        <v>12.8</v>
+      </c>
+      <c r="E4" s="109">
+        <v>13.5</v>
+      </c>
+      <c r="F4" s="110">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="115" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="111">
+        <v>9600</v>
+      </c>
+      <c r="C5" s="111">
+        <v>1.45</v>
+      </c>
+      <c r="D5" s="111">
+        <v>12.8</v>
+      </c>
+      <c r="E5" s="111">
+        <v>13.5</v>
+      </c>
+      <c r="F5" s="112">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27426,30 +27759,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
@@ -27457,32 +27790,32 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>127</v>
       </c>
@@ -27503,30 +27836,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>285</v>
       </c>

--- a/pareto/case_studies/strategic_small_case_study.xlsx
+++ b/pareto/case_studies/strategic_small_case_study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAFC582-14BE-4302-8D61-352894F6AE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF501DF8-B922-4CB3-A932-DCF942764ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -23890,7 +23890,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23900,8 +23900,8 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Beneficial Reuse Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Beneficial Reuse Capacity [bbl/week]</v>
+        <f>_xlfn.CONCAT( "Table of Beneficial Reuse Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"] (leave cells blank to indicate infinite capacity)")</f>
+        <v>Table of Beneficial Reuse Capacity [bbl/week] (leave cells blank to indicate infinite capacity)</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_small_case_study.xlsx
+++ b/pareto/case_studies/strategic_small_case_study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF501DF8-B922-4CB3-A932-DCF942764ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3EFA43-FFAF-4589-9DB9-46791CFA80AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-11892" yWindow="12996" windowWidth="23256" windowHeight="12576" tabRatio="929" firstSheet="86" activeTab="91" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -102,7 +102,15 @@
     <sheet name="PadWaterQuality" sheetId="104" r:id="rId87"/>
     <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId88"/>
     <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId89"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="130" r:id="rId90"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="131" r:id="rId91"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="132" r:id="rId92"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="133" r:id="rId93"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="134" r:id="rId94"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId95"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="74" hidden="1">#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="74">PipelineExpansionDistance!$O$3</definedName>
@@ -128,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3778" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3815" uniqueCount="313">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1059,6 +1067,15 @@
   <si>
     <t>Treatment to Storage Sites Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
   </si>
+  <si>
+    <t>pipeline_expansion_lead_time</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
 </sst>
 </file>
 
@@ -1706,7 +1723,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2018,6 +2035,22 @@
     <xf numFmtId="43" fontId="1" fillId="3" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2140,6 +2173,271 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Overview"/>
+      <sheetName val="Schematic"/>
+      <sheetName val="Units"/>
+      <sheetName val="ProductionPads"/>
+      <sheetName val="ProductionTanks"/>
+      <sheetName val="CompletionsPads"/>
+      <sheetName val="SWDSites"/>
+      <sheetName val="FreshwaterSources"/>
+      <sheetName val="StorageSites"/>
+      <sheetName val="TreatmentSites"/>
+      <sheetName val="TreatmentTechnologies"/>
+      <sheetName val="ReuseOptions"/>
+      <sheetName val="NetworkNodes"/>
+      <sheetName val="PipelineDiameters"/>
+      <sheetName val="StorageCapacities"/>
+      <sheetName val="TreatmentCapacities"/>
+      <sheetName val="InjectionCapacities"/>
+      <sheetName val="PNA"/>
+      <sheetName val="CNA"/>
+      <sheetName val="CCA"/>
+      <sheetName val="NNA"/>
+      <sheetName val="NCA"/>
+      <sheetName val="NKA"/>
+      <sheetName val="NRA"/>
+      <sheetName val="NSA"/>
+      <sheetName val="SNA"/>
+      <sheetName val="FCA"/>
+      <sheetName val="RCA"/>
+      <sheetName val="RSA"/>
+      <sheetName val="SCA"/>
+      <sheetName val="RNA"/>
+      <sheetName val="PCT"/>
+      <sheetName val="FCT"/>
+      <sheetName val="PKT"/>
+      <sheetName val="CKT"/>
+      <sheetName val="CCT"/>
+      <sheetName val="CST"/>
+      <sheetName val="Elevation"/>
+      <sheetName val="CompletionsDemand"/>
+      <sheetName val="PadRates"/>
+      <sheetName val="FlowbackRates"/>
+      <sheetName val="WellPressure"/>
+      <sheetName val="InitialPipelineCapacity"/>
+      <sheetName val="InitialPipelineDiameters"/>
+      <sheetName val="InitialDisposalCapacity"/>
+      <sheetName val="InitialStorageCapacity"/>
+      <sheetName val="InitialTreatmentCapacity"/>
+      <sheetName val="FreshwaterSourcingAvailability"/>
+      <sheetName val="CompletionsPadStorage"/>
+      <sheetName val="PadOffloadingCapacity"/>
+      <sheetName val="NodeCapacities"/>
+      <sheetName val="DisposalOperatingCapacity"/>
+      <sheetName val="DisposalOperationalCost"/>
+      <sheetName val="TreatmentOperationalCost"/>
+      <sheetName val="ReuseOperationalCost"/>
+      <sheetName val="PipelineOperationalCost"/>
+      <sheetName val="FreshSourcingCost"/>
+      <sheetName val="TruckingHourlyCost"/>
+      <sheetName val="TruckingTime"/>
+      <sheetName val="DisposalExpansionCost"/>
+      <sheetName val="DisposalCapacityIncrements"/>
+      <sheetName val="StorageExpansionCost"/>
+      <sheetName val="StorageCapacityIncrements"/>
+      <sheetName val="TreatmentExpansionCost"/>
+      <sheetName val="TreatmentCapacityIncrements"/>
+      <sheetName val="PipelineCapexDistanceBased"/>
+      <sheetName val="PipelineExpansionDistance"/>
+      <sheetName val="PipelineCapexCapacityBased"/>
+      <sheetName val="PipelineCapacityIncrements"/>
+      <sheetName val="PipelineDiameterValues"/>
+      <sheetName val="TreatmentEfficiency"/>
+      <sheetName val="RemovalEfficiency"/>
+      <sheetName val="DesalinationTechnologies"/>
+      <sheetName val="DesalinationSites"/>
+      <sheetName val="CompletionsPadOutsideSystem"/>
+      <sheetName val="Hydraulics"/>
+      <sheetName val="Economics"/>
+      <sheetName val="PadWaterQuality"/>
+      <sheetName val="StorageInitialWaterQuality"/>
+      <sheetName val="PadStorageInitialWaterQuality"/>
+      <sheetName val="TreatmentExpansionLeadTime"/>
+      <sheetName val="DisposalExpansionLeadTime"/>
+      <sheetName val="StorageExpansionLeadTime"/>
+      <sheetName val="PipelineExpansionLeadTime_Dist"/>
+      <sheetName val="PipelineExpansionLeadTime_Capac"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>INDEX</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>VALUE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>volume</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>bbl</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>distance</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>mile</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>diameter</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>inch</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>concentration</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>mg/liter</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>currency</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>USD</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>time</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>day</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>pressure</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>psi</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>elevation</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>foot</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>decision period</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>week</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="53" refreshError="1"/>
+      <sheetData sheetId="54" refreshError="1"/>
+      <sheetData sheetId="55" refreshError="1"/>
+      <sheetData sheetId="56" refreshError="1"/>
+      <sheetData sheetId="57" refreshError="1"/>
+      <sheetData sheetId="58" refreshError="1"/>
+      <sheetData sheetId="59" refreshError="1"/>
+      <sheetData sheetId="60" refreshError="1"/>
+      <sheetData sheetId="61" refreshError="1"/>
+      <sheetData sheetId="62" refreshError="1"/>
+      <sheetData sheetId="63" refreshError="1"/>
+      <sheetData sheetId="64" refreshError="1"/>
+      <sheetData sheetId="65" refreshError="1"/>
+      <sheetData sheetId="66" refreshError="1"/>
+      <sheetData sheetId="67" refreshError="1"/>
+      <sheetData sheetId="68" refreshError="1"/>
+      <sheetData sheetId="69" refreshError="1"/>
+      <sheetData sheetId="70" refreshError="1"/>
+      <sheetData sheetId="71" refreshError="1"/>
+      <sheetData sheetId="72" refreshError="1"/>
+      <sheetData sheetId="73" refreshError="1"/>
+      <sheetData sheetId="74" refreshError="1"/>
+      <sheetData sheetId="75" refreshError="1"/>
+      <sheetData sheetId="76" refreshError="1"/>
+      <sheetData sheetId="77" refreshError="1"/>
+      <sheetData sheetId="78" refreshError="1"/>
+      <sheetData sheetId="79" refreshError="1"/>
+      <sheetData sheetId="80" refreshError="1"/>
+      <sheetData sheetId="81" refreshError="1"/>
+      <sheetData sheetId="82" refreshError="1"/>
+      <sheetData sheetId="83" refreshError="1"/>
+      <sheetData sheetId="84" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2444,7 +2742,7 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -38974,4 +39272,362 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601FBCBB-D890-4E0B-8B55-2105D6D6F963}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Treatment Expansion Lead Time [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Treatment Expansion Lead Time [weeks]</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="134">
+        <v>0</v>
+      </c>
+      <c r="D3" s="34">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="95">
+        <v>0</v>
+      </c>
+      <c r="D4" s="42">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="134">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="35">
+        <v>0</v>
+      </c>
+      <c r="D6" s="36">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F7DDE5-FDC2-4C70-890C-06DC683CFAEE}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Disposal Expansion Lead Time [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Disposal Expansion Lead Time [weeks]</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="36">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B41EC2-F090-42D1-AFF8-3056037AC65C}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks]</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="36">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C948FE1C-5222-430C-A488-5C062B27C71E}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s/",VLOOKUP("distance", [1]Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks/mile]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" s="127">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2C55AF-2723-4AFC-8D30-4EEF7BD23296}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks]</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="128" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="129">
+        <v>0</v>
+      </c>
+      <c r="D3" s="129">
+        <v>1</v>
+      </c>
+      <c r="E3" s="130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="128" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="129">
+        <v>0</v>
+      </c>
+      <c r="D4" s="129">
+        <v>1</v>
+      </c>
+      <c r="E4" s="130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="128" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="129">
+        <v>0</v>
+      </c>
+      <c r="D5" s="129">
+        <v>1</v>
+      </c>
+      <c r="E5" s="130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="131" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="132">
+        <v>0</v>
+      </c>
+      <c r="D6" s="132">
+        <v>1</v>
+      </c>
+      <c r="E6" s="133">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pareto/case_studies/strategic_small_case_study.xlsx
+++ b/pareto/case_studies/strategic_small_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3EFA43-FFAF-4589-9DB9-46791CFA80AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047656BE-09FA-45E6-AC24-C1949A346EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11892" yWindow="12996" windowWidth="23256" windowHeight="12576" tabRatio="929" firstSheet="86" activeTab="91" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="929" firstSheet="87" activeTab="93" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3815" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3813" uniqueCount="311">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1070,12 +1070,6 @@
   <si>
     <t>pipeline_expansion_lead_time</t>
   </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
 </sst>
 </file>
 
@@ -1723,7 +1717,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2041,16 +2035,11 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2269,8 +2258,8 @@
       <sheetName val="PipelineExpansionLeadTime_Capac"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="A2" t="str">
@@ -2353,88 +2342,88 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
-      <sheetData sheetId="54" refreshError="1"/>
-      <sheetData sheetId="55" refreshError="1"/>
-      <sheetData sheetId="56" refreshError="1"/>
-      <sheetData sheetId="57" refreshError="1"/>
-      <sheetData sheetId="58" refreshError="1"/>
-      <sheetData sheetId="59" refreshError="1"/>
-      <sheetData sheetId="60" refreshError="1"/>
-      <sheetData sheetId="61" refreshError="1"/>
-      <sheetData sheetId="62" refreshError="1"/>
-      <sheetData sheetId="63" refreshError="1"/>
-      <sheetData sheetId="64" refreshError="1"/>
-      <sheetData sheetId="65" refreshError="1"/>
-      <sheetData sheetId="66" refreshError="1"/>
-      <sheetData sheetId="67" refreshError="1"/>
-      <sheetData sheetId="68" refreshError="1"/>
-      <sheetData sheetId="69" refreshError="1"/>
-      <sheetData sheetId="70" refreshError="1"/>
-      <sheetData sheetId="71" refreshError="1"/>
-      <sheetData sheetId="72" refreshError="1"/>
-      <sheetData sheetId="73" refreshError="1"/>
-      <sheetData sheetId="74" refreshError="1"/>
-      <sheetData sheetId="75" refreshError="1"/>
-      <sheetData sheetId="76" refreshError="1"/>
-      <sheetData sheetId="77" refreshError="1"/>
-      <sheetData sheetId="78" refreshError="1"/>
-      <sheetData sheetId="79" refreshError="1"/>
-      <sheetData sheetId="80" refreshError="1"/>
-      <sheetData sheetId="81" refreshError="1"/>
-      <sheetData sheetId="82" refreshError="1"/>
-      <sheetData sheetId="83" refreshError="1"/>
-      <sheetData sheetId="84" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+      <sheetData sheetId="65"/>
+      <sheetData sheetId="66"/>
+      <sheetData sheetId="67"/>
+      <sheetData sheetId="68"/>
+      <sheetData sheetId="69"/>
+      <sheetData sheetId="70"/>
+      <sheetData sheetId="71"/>
+      <sheetData sheetId="72"/>
+      <sheetData sheetId="73"/>
+      <sheetData sheetId="74"/>
+      <sheetData sheetId="75"/>
+      <sheetData sheetId="76"/>
+      <sheetData sheetId="77"/>
+      <sheetData sheetId="78"/>
+      <sheetData sheetId="79"/>
+      <sheetData sheetId="80"/>
+      <sheetData sheetId="81"/>
+      <sheetData sheetId="82"/>
+      <sheetData sheetId="83"/>
+      <sheetData sheetId="84"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -39317,7 +39306,7 @@
       <c r="B3" s="75" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="134">
+      <c r="C3" s="33">
         <v>0</v>
       </c>
       <c r="D3" s="34">
@@ -39345,7 +39334,7 @@
       <c r="B5" s="75" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="134">
+      <c r="C5" s="33">
         <v>0</v>
       </c>
       <c r="D5" s="34">
@@ -39435,7 +39424,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -39525,41 +39514,34 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
         <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks]</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B2" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>130</v>
       </c>
@@ -39569,14 +39551,8 @@
       <c r="C3" s="129">
         <v>0</v>
       </c>
-      <c r="D3" s="129">
-        <v>1</v>
-      </c>
-      <c r="E3" s="130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>132</v>
       </c>
@@ -39586,14 +39562,8 @@
       <c r="C4" s="129">
         <v>0</v>
       </c>
-      <c r="D4" s="129">
-        <v>1</v>
-      </c>
-      <c r="E4" s="130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>129</v>
       </c>
@@ -39603,28 +39573,16 @@
       <c r="C5" s="129">
         <v>0</v>
       </c>
-      <c r="D5" s="129">
-        <v>1</v>
-      </c>
-      <c r="E5" s="130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="132">
+      <c r="C6" s="131">
         <v>0</v>
-      </c>
-      <c r="D6" s="132">
-        <v>1</v>
-      </c>
-      <c r="E6" s="133">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_small_case_study.xlsx
+++ b/pareto/case_studies/strategic_small_case_study.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59AAEFF-4D29-4B56-83C2-DDD296F33233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE76421-7CC6-43AA-B3AB-965B7C3011E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -97,18 +97,19 @@
     <sheet name="RemovalEfficiency" sheetId="116" r:id="rId82"/>
     <sheet name="DesalinationTechnologies" sheetId="112" r:id="rId83"/>
     <sheet name="DesalinationSites" sheetId="114" r:id="rId84"/>
-    <sheet name="BeneficialReuseCredit" sheetId="129" r:id="rId85"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="113" r:id="rId86"/>
-    <sheet name="Hydraulics" sheetId="95" r:id="rId87"/>
-    <sheet name="Economics" sheetId="99" r:id="rId88"/>
-    <sheet name="PadWaterQuality" sheetId="104" r:id="rId89"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId90"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId91"/>
-    <sheet name="TreatmentExpansionLeadTime" sheetId="130" r:id="rId92"/>
-    <sheet name="DisposalExpansionLeadTime" sheetId="131" r:id="rId93"/>
-    <sheet name="StorageExpansionLeadTime" sheetId="132" r:id="rId94"/>
-    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="133" r:id="rId95"/>
-    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="134" r:id="rId96"/>
+    <sheet name="BeneficialReuseCost" sheetId="137" r:id="rId85"/>
+    <sheet name="BeneficialReuseCredit" sheetId="129" r:id="rId86"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="113" r:id="rId87"/>
+    <sheet name="Hydraulics" sheetId="95" r:id="rId88"/>
+    <sheet name="Economics" sheetId="99" r:id="rId89"/>
+    <sheet name="PadWaterQuality" sheetId="104" r:id="rId90"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId91"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId92"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="130" r:id="rId93"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="131" r:id="rId94"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="132" r:id="rId95"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="133" r:id="rId96"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="134" r:id="rId97"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
@@ -38394,6 +38395,33 @@
 </file>
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A617E75-F8DA-4C29-9C5C-5A80A1285E97}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="str">
+        <f>CONCATENATE( "Table with processing cost for sending water to beneficial reuse [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table with processing cost for sending water to beneficial reuse [USD/bbl]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9751595C-A60B-44E7-B403-F81EBA7A1A29}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -38401,7 +38429,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -38420,7 +38448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D5E840-A652-4014-8BA7-131503FECE29}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -38487,7 +38515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97A568C-E2FB-4ADF-84D0-ABF3E0446F9A}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -38560,7 +38588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB07E06-ED03-4572-9B3E-05DAA3F2CF42}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -38608,256 +38636,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23C97C0-70AD-4A71-BE9C-0931EDC97CA5}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="46">
-        <v>142277</v>
-      </c>
-      <c r="C3" s="46">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="47">
-        <v>140998</v>
-      </c>
-      <c r="C4" s="47">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="47">
-        <v>172490.2</v>
-      </c>
-      <c r="C5" s="47">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="47">
-        <v>257547</v>
-      </c>
-      <c r="C6" s="120">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="47">
-        <v>241833.8</v>
-      </c>
-      <c r="C7" s="47">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="47">
-        <v>188503.7</v>
-      </c>
-      <c r="C8" s="47">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="47">
-        <v>146716</v>
-      </c>
-      <c r="C9" s="47">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="47">
-        <v>216563</v>
-      </c>
-      <c r="C10" s="120">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="47">
-        <v>150626</v>
-      </c>
-      <c r="C11" s="47">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="47">
-        <v>247061</v>
-      </c>
-      <c r="C12" s="47">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="47">
-        <v>180968</v>
-      </c>
-      <c r="C13" s="47">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="47">
-        <v>195584</v>
-      </c>
-      <c r="C14" s="47">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="47">
-        <v>148655</v>
-      </c>
-      <c r="C15" s="47">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="47">
-        <v>185369</v>
-      </c>
-      <c r="C16" s="47">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="106">
-        <v>222724</v>
-      </c>
-      <c r="C17" s="47">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="47">
-        <v>165376</v>
-      </c>
-      <c r="C18" s="46">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="47">
-        <v>240977</v>
-      </c>
-      <c r="C19" s="47">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="47">
-        <v>192794</v>
-      </c>
-      <c r="C20" s="47">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="48">
-        <v>216769</v>
-      </c>
-      <c r="C21" s="48">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -38910,6 +38688,256 @@
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23C97C0-70AD-4A71-BE9C-0931EDC97CA5}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="46">
+        <v>142277</v>
+      </c>
+      <c r="C3" s="46">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="47">
+        <v>140998</v>
+      </c>
+      <c r="C4" s="47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="47">
+        <v>172490.2</v>
+      </c>
+      <c r="C5" s="47">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="47">
+        <v>257547</v>
+      </c>
+      <c r="C6" s="120">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="47">
+        <v>241833.8</v>
+      </c>
+      <c r="C7" s="47">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="47">
+        <v>188503.7</v>
+      </c>
+      <c r="C8" s="47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="47">
+        <v>146716</v>
+      </c>
+      <c r="C9" s="47">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="47">
+        <v>216563</v>
+      </c>
+      <c r="C10" s="120">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="47">
+        <v>150626</v>
+      </c>
+      <c r="C11" s="47">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="47">
+        <v>247061</v>
+      </c>
+      <c r="C12" s="47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="47">
+        <v>180968</v>
+      </c>
+      <c r="C13" s="47">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="47">
+        <v>195584</v>
+      </c>
+      <c r="C14" s="47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="47">
+        <v>148655</v>
+      </c>
+      <c r="C15" s="47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="47">
+        <v>185369</v>
+      </c>
+      <c r="C16" s="47">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="106">
+        <v>222724</v>
+      </c>
+      <c r="C17" s="47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="47">
+        <v>165376</v>
+      </c>
+      <c r="C18" s="46">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="47">
+        <v>240977</v>
+      </c>
+      <c r="C19" s="47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="47">
+        <v>192794</v>
+      </c>
+      <c r="C20" s="47">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="48">
+        <v>216769</v>
+      </c>
+      <c r="C21" s="48">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485401B3-8B00-41A4-BDC3-322B62874F13}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -38971,7 +38999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C5F8D1-3580-447F-A30D-0D2BFC2160E3}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -39055,7 +39083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601FBCBB-D890-4E0B-8B55-2105D6D6F963}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -39152,7 +39180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F7DDE5-FDC2-4C70-890C-06DC683CFAEE}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -39209,7 +39237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B41EC2-F090-42D1-AFF8-3056037AC65C}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -39258,7 +39286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C948FE1C-5222-430C-A488-5C062B27C71E}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -39301,7 +39329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2C55AF-2723-4AFC-8D30-4EEF7BD23296}">
   <sheetPr>
     <tabColor theme="0"/>

--- a/pareto/case_studies/strategic_small_case_study.xlsx
+++ b/pareto/case_studies/strategic_small_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0A2553-89A4-4024-9873-6551AD2534D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0EE640-0C23-4371-9E74-93D4040D3FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="929" firstSheet="84" activeTab="90" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="929" firstSheet="83" activeTab="90" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3842" uniqueCount="326">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1098,6 +1098,21 @@
   </si>
   <si>
     <t>Storage (g/bbl-week)</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>1000g</t>
+  </si>
+  <si>
+    <t>Mass units is used for measuring emissions coefficients (e.g. 10g per treated produced water bbl).</t>
   </si>
 </sst>
 </file>
@@ -6872,10 +6887,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
-  <dimension ref="A1:BA12"/>
+  <dimension ref="A1:BB12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6896,16 +6911,17 @@
     <col min="50" max="50" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.33203125" style="1"/>
+    <col min="53" max="53" width="9.33203125" style="1" customWidth="1"/>
+    <col min="54" max="54" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>219</v>
       </c>
@@ -6925,7 +6941,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="51"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>232</v>
       </c>
@@ -6955,7 +6971,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>235</v>
       </c>
@@ -6979,7 +6995,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>239</v>
       </c>
@@ -6997,7 +7013,7 @@
       <c r="J5" s="58"/>
       <c r="K5" s="60"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>241</v>
       </c>
@@ -7021,7 +7037,7 @@
       <c r="J6" s="58"/>
       <c r="K6" s="60"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>244</v>
       </c>
@@ -7045,7 +7061,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="60"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>248</v>
       </c>
@@ -7084,10 +7100,13 @@
         <v>290</v>
       </c>
       <c r="BA8" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="BB8" s="29" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>290</v>
       </c>
@@ -7132,10 +7151,13 @@
         <v>294</v>
       </c>
       <c r="BA9" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="BB9" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>295</v>
       </c>
@@ -7174,50 +7196,75 @@
         <v>291</v>
       </c>
       <c r="BA10" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="BB10" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65" t="s">
+      <c r="H11" s="59"/>
+      <c r="I11" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="K11" s="63" t="s">
+      <c r="K11" s="60" t="s">
         <v>256</v>
       </c>
       <c r="AU11" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BA11" s="1" t="s">
+      <c r="BB11" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="H12" s="64"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
       <c r="AU12" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="BA12" s="1" t="s">
+      <c r="BB12" s="1" t="s">
         <v>255</v>
       </c>
     </row>
@@ -7242,7 +7289,7 @@
       <formula1>$AT$9:$AT$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11" xr:uid="{181EF7AB-511F-47A3-BC05-E7FB483DBB69}">
-      <formula1>$BA$9:$BA$12</formula1>
+      <formula1>$BB$9:$BB$12</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{06C1A8A0-A54F-4D19-9A2F-F593097DAA61}">
       <formula1>$AZ$9:$AZ$10</formula1>
@@ -39060,10 +39107,10 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39203,6 +39250,11 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -39217,7 +39269,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/pareto/case_studies/strategic_small_case_study.xlsx
+++ b/pareto/case_studies/strategic_small_case_study.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05486AD0-012F-4ED5-86D8-88676F12A3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48B218C-43E1-4595-831D-6E2C1FA3E194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3829" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3829" uniqueCount="314">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1077,6 +1077,9 @@
   </si>
   <si>
     <t>Treatment Sites to Disposal Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>List of all Water Quality Components [-]</t>
   </si>
 </sst>
 </file>
@@ -38638,7 +38641,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -38726,8 +38729,8 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
+        <f>_xlfn.CONCAT( "Table of Water Quality of Freshwater Sources [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Water Quality of Freshwater Sources [mg/liter]</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/pareto/case_studies/strategic_small_case_study.xlsx
+++ b/pareto/case_studies/strategic_small_case_study.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38A0BDF-4B1F-46B0-BF94-7E5BFF968706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779D3FFA-3F1B-422B-948F-6B0CA8BCD9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3817" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="311">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -991,9 +991,6 @@
   </si>
   <si>
     <t>Elevation Data in ft</t>
-  </si>
-  <si>
-    <t>Table of Production Rate Forecasts by Pads [bbl/day]</t>
   </si>
   <si>
     <t>Flow-pressure assumption</t>
@@ -6613,7 +6610,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -6687,7 +6684,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -7027,7 +7024,7 @@
         <v>247</v>
       </c>
       <c r="AZ8" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BA8" s="29" t="s">
         <v>249</v>
@@ -7035,22 +7032,22 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="D9" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="D9" s="59" t="s">
-        <v>291</v>
-      </c>
       <c r="E9" s="57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F9" s="58" t="s">
         <v>232</v>
       </c>
       <c r="G9" s="58" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H9" s="59"/>
       <c r="I9" s="58"/>
@@ -7075,7 +7072,7 @@
         <v>248</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>248</v>
@@ -7083,13 +7080,13 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>256</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E10" s="57"/>
       <c r="F10" s="58"/>
@@ -7117,7 +7114,7 @@
         <v>251</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>251</v>
@@ -7218,7 +7215,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7281,7 +7278,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -7411,7 +7408,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7458,7 +7455,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -7484,7 +7481,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -8413,7 +8410,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -8464,7 +8461,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -8490,7 +8487,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -8516,7 +8513,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -13785,17 +13782,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT("Well pressure at production or completions pad [",VLOOKUP("pressure", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Well pressure at production or completions pad [psi]</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="Q1" s="1">
         <v>2E-3</v>
@@ -19721,7 +19719,7 @@
   <sheetData>
     <row r="1" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
@@ -26651,7 +26649,7 @@
   <sheetData>
     <row r="1" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -38576,24 +38574,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B5" s="34">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B6" s="36">
         <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -39331,7 +39329,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B3" s="127">
         <v>0.2</v>

--- a/pareto/case_studies/strategic_small_case_study.xlsx
+++ b/pareto/case_studies/strategic_small_case_study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779D3FFA-3F1B-422B-948F-6B0CA8BCD9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C81AB4-9024-4818-8485-6666BEEFF877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -110,6 +110,14 @@
     <sheet name="StorageExpansionLeadTime" sheetId="132" r:id="rId95"/>
     <sheet name="PipelineExpansionLeadTime_Dist" sheetId="133" r:id="rId96"/>
     <sheet name="PipelineExpansionLeadTime_Capac" sheetId="134" r:id="rId97"/>
+    <sheet name="SWDDeep" sheetId="138" r:id="rId98"/>
+    <sheet name="SWDAveragePressure" sheetId="139" r:id="rId99"/>
+    <sheet name="SWDProxPAWell" sheetId="140" r:id="rId100"/>
+    <sheet name="SWDProxInactiveWell" sheetId="141" r:id="rId101"/>
+    <sheet name="SWDProxEQ" sheetId="142" r:id="rId102"/>
+    <sheet name="SWDProxFault" sheetId="143" r:id="rId103"/>
+    <sheet name="SWDProxHpOrLpWell" sheetId="144" r:id="rId104"/>
+    <sheet name="SWDRiskFactors" sheetId="145" r:id="rId105"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
@@ -136,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="332">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1070,6 +1078,69 @@
   <si>
     <t>Treatment Sites to Disposal Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
   </si>
+  <si>
+    <t>SWDs - shallow (0) or deep (1)</t>
+  </si>
+  <si>
+    <t>Average pressure/depth in vicinity of well [psi/ft]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to P&amp;A'd well [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to inactive/temporarily abandoned formerly producing well (completed prior to 2000) [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to earthquakes &gt;= 3.0 magnitude [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to fault [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to high pressure or low pressure injection well [miles]</t>
+  </si>
+  <si>
+    <t>SWD risk factors</t>
+  </si>
+  <si>
+    <t>orphan_well_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>orphan_well_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>inactive_well_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>inactive_well_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>EQ_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>EQ_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>fault_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>fault_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_LP_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_LP_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_threshold</t>
+  </si>
+  <si>
+    <t>psi/ft</t>
+  </si>
+  <si>
+    <t>LP_threshold</t>
+  </si>
 </sst>
 </file>
 
@@ -1717,7 +1788,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2040,6 +2111,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -3068,6 +3161,286 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ED0F7A-8D89-4401-AB1F-E80EDE46C310}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42985FF2-21FB-4462-A238-35D6908AFC78}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C02643-0603-445E-8BD2-841894014CAF}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80122FA4-5F5F-4F49-8B3B-F85EC875B6DB}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB7BE41-F05A-4BA9-A86E-D3919FABEA54}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5CC43A-B92E-48D7-BDB3-3F2DA46B35B3}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="132" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="134" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="135" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="133"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="136" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="137">
+        <v>1.86</v>
+      </c>
+      <c r="C3" s="133"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="136" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" s="137">
+        <v>2</v>
+      </c>
+      <c r="C4" s="133"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="136" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="137">
+        <v>1.86</v>
+      </c>
+      <c r="C5" s="133"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="136" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="137">
+        <v>2</v>
+      </c>
+      <c r="C6" s="133"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="136" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="137">
+        <v>5.59</v>
+      </c>
+      <c r="C7" s="133"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="136" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" s="137">
+        <v>1</v>
+      </c>
+      <c r="C8" s="133"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="136" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" s="137">
+        <v>5.59</v>
+      </c>
+      <c r="C9" s="133"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="136" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="137">
+        <v>1</v>
+      </c>
+      <c r="C10" s="133"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="136" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" s="137">
+        <v>1.86</v>
+      </c>
+      <c r="C11" s="133"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="136" t="s">
+        <v>328</v>
+      </c>
+      <c r="B12" s="137">
+        <v>2</v>
+      </c>
+      <c r="C12" s="133"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="136" t="s">
+        <v>329</v>
+      </c>
+      <c r="B13" s="137">
+        <v>0.7</v>
+      </c>
+      <c r="C13" s="133" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="138" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" s="139">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="133" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFC53F8-A679-4C96-A30B-3522B67D8CF1}">
   <sheetPr>
@@ -39417,4 +39790,56 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AEADEA-74C6-4228-B3CC-EA34A2C3EFBB}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C176875-C7BB-44C0-9BFE-6A37D0B4C6CF}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pareto/case_studies/strategic_small_case_study.xlsx
+++ b/pareto/case_studies/strategic_small_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC963FB0-6367-4232-9DB3-3499B94380A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E69FDC-8F44-453F-894E-ED313A45ABE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="333">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1156,7 +1156,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1222,8 +1222,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1248,8 +1266,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="46">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1786,14 +1809,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2156,9 +2208,73 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
@@ -3188,20 +3304,53 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="146" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="147" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="148" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="160" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="161">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3214,20 +3363,53 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="146" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="147" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="150" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="47">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="150" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="47">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="162" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="48">
+        <v>0.53438082767110195</v>
       </c>
     </row>
   </sheetData>
@@ -3240,20 +3422,53 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="151" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="152" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="153" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="154">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="153" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="154">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="163" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="164">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -3266,20 +3481,53 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="155" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="156" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="157" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="158">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="157" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="158">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="165" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="166">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -3292,20 +3540,53 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="155" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="156" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="157" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="158">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="157" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="158">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="165" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="166">
+        <v>3.22</v>
       </c>
     </row>
   </sheetData>
@@ -3318,20 +3599,53 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="159" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="157" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="158">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="157" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="158">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="165" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="166">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -3344,20 +3658,53 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="159" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="157" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="158">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="157" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="158">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="165" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="166">
+        <v>1.76</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_small_case_study.xlsx
+++ b/pareto/case_studies/strategic_small_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E69FDC-8F44-453F-894E-ED313A45ABE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901F3F0B-94CC-48B5-8C90-1364D0CB8633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="929" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -22,108 +22,111 @@
     <sheet name="SWDSites" sheetId="4" r:id="rId7"/>
     <sheet name="ExternalWaterSources" sheetId="35" r:id="rId8"/>
     <sheet name="WaterQualityComponents" sheetId="146" r:id="rId9"/>
-    <sheet name="StorageSites" sheetId="36" r:id="rId10"/>
-    <sheet name="TreatmentSites" sheetId="37" r:id="rId11"/>
-    <sheet name="TreatmentTechnologies" sheetId="110" r:id="rId12"/>
-    <sheet name="ReuseOptions" sheetId="38" r:id="rId13"/>
-    <sheet name="NetworkNodes" sheetId="39" r:id="rId14"/>
-    <sheet name="PipelineDiameters" sheetId="53" r:id="rId15"/>
-    <sheet name="StorageCapacities" sheetId="54" r:id="rId16"/>
-    <sheet name="TreatmentCapacities" sheetId="86" r:id="rId17"/>
-    <sheet name="InjectionCapacities" sheetId="55" r:id="rId18"/>
-    <sheet name="PNA" sheetId="56" r:id="rId19"/>
-    <sheet name="CNA" sheetId="57" r:id="rId20"/>
-    <sheet name="CCA" sheetId="73" r:id="rId21"/>
-    <sheet name="NNA" sheetId="58" r:id="rId22"/>
-    <sheet name="NCA" sheetId="59" r:id="rId23"/>
-    <sheet name="NKA" sheetId="60" r:id="rId24"/>
-    <sheet name="NRA" sheetId="61" r:id="rId25"/>
-    <sheet name="NSA" sheetId="76" r:id="rId26"/>
-    <sheet name="NOA" sheetId="123" r:id="rId27"/>
-    <sheet name="SNA" sheetId="77" r:id="rId28"/>
-    <sheet name="SOA" sheetId="122" r:id="rId29"/>
-    <sheet name="FCA" sheetId="41" r:id="rId30"/>
-    <sheet name="RCA" sheetId="83" r:id="rId31"/>
-    <sheet name="RSA" sheetId="96" r:id="rId32"/>
-    <sheet name="SCA" sheetId="97" r:id="rId33"/>
-    <sheet name="RNA" sheetId="62" r:id="rId34"/>
-    <sheet name="ROA" sheetId="121" r:id="rId35"/>
-    <sheet name="RKA" sheetId="136" r:id="rId36"/>
-    <sheet name="PCT" sheetId="42" r:id="rId37"/>
-    <sheet name="FCT" sheetId="70" r:id="rId38"/>
-    <sheet name="PKT" sheetId="43" r:id="rId39"/>
-    <sheet name="CKT" sheetId="44" r:id="rId40"/>
-    <sheet name="CCT" sheetId="74" r:id="rId41"/>
-    <sheet name="CST" sheetId="64" r:id="rId42"/>
-    <sheet name="RST" sheetId="124" r:id="rId43"/>
-    <sheet name="ROT" sheetId="125" r:id="rId44"/>
-    <sheet name="SOT" sheetId="126" r:id="rId45"/>
-    <sheet name="RKT" sheetId="135" r:id="rId46"/>
-    <sheet name="Elevation" sheetId="117" r:id="rId47"/>
-    <sheet name="CompletionsDemand" sheetId="8" r:id="rId48"/>
-    <sheet name="PadRates" sheetId="65" r:id="rId49"/>
-    <sheet name="FlowbackRates" sheetId="75" r:id="rId50"/>
-    <sheet name="WellPressure" sheetId="118" r:id="rId51"/>
-    <sheet name="InitialPipelineCapacity" sheetId="120" r:id="rId52"/>
-    <sheet name="InitialPipelineDiameters" sheetId="119" r:id="rId53"/>
-    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId54"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId55"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId56"/>
-    <sheet name="ReuseMinimum" sheetId="127" r:id="rId57"/>
-    <sheet name="ReuseCapacity" sheetId="128" r:id="rId58"/>
-    <sheet name="ExtWaterSourcingAvailability" sheetId="47" r:id="rId59"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId60"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId61"/>
-    <sheet name="NodeCapacities" sheetId="107" r:id="rId62"/>
-    <sheet name="DisposalOperatingCapacity" sheetId="111" r:id="rId63"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId64"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId65"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId66"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId67"/>
-    <sheet name="ExternalSourcingCost" sheetId="52" r:id="rId68"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId69"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId70"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId71"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId72"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId73"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId74"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId75"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId76"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId77"/>
-    <sheet name="PipelineExpansionDistance" sheetId="103" r:id="rId78"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="101" r:id="rId79"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="100" r:id="rId80"/>
-    <sheet name="PipelineDiameterValues" sheetId="93" r:id="rId81"/>
-    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId82"/>
-    <sheet name="RemovalEfficiency" sheetId="116" r:id="rId83"/>
-    <sheet name="DesalinationTechnologies" sheetId="112" r:id="rId84"/>
-    <sheet name="DesalinationSites" sheetId="114" r:id="rId85"/>
-    <sheet name="BeneficialReuseCost" sheetId="137" r:id="rId86"/>
-    <sheet name="BeneficialReuseCredit" sheetId="129" r:id="rId87"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="113" r:id="rId88"/>
-    <sheet name="Hydraulics" sheetId="95" r:id="rId89"/>
-    <sheet name="Economics" sheetId="99" r:id="rId90"/>
-    <sheet name="ExternalWaterQuality" sheetId="147" r:id="rId91"/>
-    <sheet name="PadWaterQuality" sheetId="104" r:id="rId92"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId93"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId94"/>
-    <sheet name="TreatmentExpansionLeadTime" sheetId="130" r:id="rId95"/>
-    <sheet name="DisposalExpansionLeadTime" sheetId="131" r:id="rId96"/>
-    <sheet name="StorageExpansionLeadTime" sheetId="132" r:id="rId97"/>
-    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="133" r:id="rId98"/>
-    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="134" r:id="rId99"/>
-    <sheet name="SWDDeep" sheetId="138" r:id="rId100"/>
-    <sheet name="SWDAveragePressure" sheetId="139" r:id="rId101"/>
-    <sheet name="SWDProxPAWell" sheetId="140" r:id="rId102"/>
-    <sheet name="SWDProxInactiveWell" sheetId="141" r:id="rId103"/>
-    <sheet name="SWDProxEQ" sheetId="142" r:id="rId104"/>
-    <sheet name="SWDProxFault" sheetId="143" r:id="rId105"/>
-    <sheet name="SWDProxHpOrLpWell" sheetId="144" r:id="rId106"/>
-    <sheet name="SWDRiskFactors" sheetId="145" r:id="rId107"/>
+    <sheet name="AirEmissionsComponents" sheetId="150" r:id="rId10"/>
+    <sheet name="StorageSites" sheetId="36" r:id="rId11"/>
+    <sheet name="TreatmentSites" sheetId="37" r:id="rId12"/>
+    <sheet name="TreatmentTechnologies" sheetId="110" r:id="rId13"/>
+    <sheet name="ReuseOptions" sheetId="38" r:id="rId14"/>
+    <sheet name="NetworkNodes" sheetId="39" r:id="rId15"/>
+    <sheet name="PipelineDiameters" sheetId="53" r:id="rId16"/>
+    <sheet name="StorageCapacities" sheetId="54" r:id="rId17"/>
+    <sheet name="TreatmentCapacities" sheetId="86" r:id="rId18"/>
+    <sheet name="InjectionCapacities" sheetId="55" r:id="rId19"/>
+    <sheet name="PNA" sheetId="56" r:id="rId20"/>
+    <sheet name="CNA" sheetId="57" r:id="rId21"/>
+    <sheet name="CCA" sheetId="73" r:id="rId22"/>
+    <sheet name="NNA" sheetId="58" r:id="rId23"/>
+    <sheet name="NCA" sheetId="59" r:id="rId24"/>
+    <sheet name="NKA" sheetId="60" r:id="rId25"/>
+    <sheet name="NRA" sheetId="61" r:id="rId26"/>
+    <sheet name="NSA" sheetId="76" r:id="rId27"/>
+    <sheet name="NOA" sheetId="123" r:id="rId28"/>
+    <sheet name="SNA" sheetId="77" r:id="rId29"/>
+    <sheet name="SOA" sheetId="122" r:id="rId30"/>
+    <sheet name="FCA" sheetId="41" r:id="rId31"/>
+    <sheet name="RCA" sheetId="83" r:id="rId32"/>
+    <sheet name="RSA" sheetId="96" r:id="rId33"/>
+    <sheet name="SCA" sheetId="97" r:id="rId34"/>
+    <sheet name="RNA" sheetId="62" r:id="rId35"/>
+    <sheet name="ROA" sheetId="121" r:id="rId36"/>
+    <sheet name="RKA" sheetId="136" r:id="rId37"/>
+    <sheet name="PCT" sheetId="42" r:id="rId38"/>
+    <sheet name="FCT" sheetId="70" r:id="rId39"/>
+    <sheet name="PKT" sheetId="43" r:id="rId40"/>
+    <sheet name="CKT" sheetId="44" r:id="rId41"/>
+    <sheet name="CCT" sheetId="74" r:id="rId42"/>
+    <sheet name="CST" sheetId="64" r:id="rId43"/>
+    <sheet name="RST" sheetId="124" r:id="rId44"/>
+    <sheet name="ROT" sheetId="125" r:id="rId45"/>
+    <sheet name="SOT" sheetId="126" r:id="rId46"/>
+    <sheet name="RKT" sheetId="135" r:id="rId47"/>
+    <sheet name="Elevation" sheetId="117" r:id="rId48"/>
+    <sheet name="CompletionsDemand" sheetId="8" r:id="rId49"/>
+    <sheet name="PadRates" sheetId="65" r:id="rId50"/>
+    <sheet name="FlowbackRates" sheetId="75" r:id="rId51"/>
+    <sheet name="WellPressure" sheetId="118" r:id="rId52"/>
+    <sheet name="InitialPipelineCapacity" sheetId="120" r:id="rId53"/>
+    <sheet name="InitialPipelineDiameters" sheetId="119" r:id="rId54"/>
+    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId55"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId56"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId57"/>
+    <sheet name="ReuseMinimum" sheetId="127" r:id="rId58"/>
+    <sheet name="ReuseCapacity" sheetId="128" r:id="rId59"/>
+    <sheet name="ExtWaterSourcingAvailability" sheetId="47" r:id="rId60"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId61"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId62"/>
+    <sheet name="NodeCapacities" sheetId="107" r:id="rId63"/>
+    <sheet name="DisposalOperatingCapacity" sheetId="111" r:id="rId64"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId65"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId66"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId67"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId68"/>
+    <sheet name="ExternalSourcingCost" sheetId="52" r:id="rId69"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId70"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId71"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId72"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId73"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId74"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId75"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId76"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId77"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId78"/>
+    <sheet name="PipelineExpansionDistance" sheetId="103" r:id="rId79"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="101" r:id="rId80"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="100" r:id="rId81"/>
+    <sheet name="PipelineDiameterValues" sheetId="93" r:id="rId82"/>
+    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId83"/>
+    <sheet name="RemovalEfficiency" sheetId="116" r:id="rId84"/>
+    <sheet name="DesalinationTechnologies" sheetId="112" r:id="rId85"/>
+    <sheet name="DesalinationSites" sheetId="114" r:id="rId86"/>
+    <sheet name="BeneficialReuseCost" sheetId="137" r:id="rId87"/>
+    <sheet name="BeneficialReuseCredit" sheetId="129" r:id="rId88"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="113" r:id="rId89"/>
+    <sheet name="Hydraulics" sheetId="95" r:id="rId90"/>
+    <sheet name="Economics" sheetId="99" r:id="rId91"/>
+    <sheet name="ExternalWaterQuality" sheetId="147" r:id="rId92"/>
+    <sheet name="PadWaterQuality" sheetId="104" r:id="rId93"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId94"/>
+    <sheet name="AirEmissionCoefficients" sheetId="148" r:id="rId95"/>
+    <sheet name="TreatmentEmissionCoefficients" sheetId="149" r:id="rId96"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId97"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="130" r:id="rId98"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="131" r:id="rId99"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="132" r:id="rId100"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="133" r:id="rId101"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="134" r:id="rId102"/>
+    <sheet name="SWDDeep" sheetId="138" r:id="rId103"/>
+    <sheet name="SWDAveragePressure" sheetId="139" r:id="rId104"/>
+    <sheet name="SWDProxPAWell" sheetId="140" r:id="rId105"/>
+    <sheet name="SWDProxInactiveWell" sheetId="141" r:id="rId106"/>
+    <sheet name="SWDProxEQ" sheetId="142" r:id="rId107"/>
+    <sheet name="SWDProxFault" sheetId="143" r:id="rId108"/>
+    <sheet name="SWDProxHpOrLpWell" sheetId="144" r:id="rId109"/>
+    <sheet name="SWDRiskFactors" sheetId="145" r:id="rId110"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="77" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="77">PipelineExpansionDistance!$O$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="78" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="78">PipelineExpansionDistance!$O$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -146,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3916" uniqueCount="344">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1146,6 +1149,39 @@
   <si>
     <t>External Water Sources to Completions Pads Trucking Arcs [-]</t>
   </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Mass units is used for measuring emissions coefficients (e.g. 10g per treated produced water bbl).</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>1000g</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>PM 2.5</t>
+  </si>
+  <si>
+    <t>List of all Air Emissions Components [-]</t>
+  </si>
 </sst>
 </file>
 
@@ -1272,7 +1308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1837,6 +1873,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1845,7 +1894,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2269,6 +2318,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3252,6 +3304,636 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432285D6-18FB-4D83-8601-79087E4D68C1}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B41EC2-F090-42D1-AFF8-3056037AC65C}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Storage Expansion Lead Time [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Storage Expansion Lead Time [weeks]</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="36">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C948FE1C-5222-430C-A488-5C062B27C71E}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s/",VLOOKUP("distance", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks/mile]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="127">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2C55AF-2723-4AFC-8D30-4EEF7BD23296}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Capacity Based [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Capacity Based [weeks]</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="128" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="130" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="131">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AEADEA-74C6-4228-B3CC-EA34A2C3EFBB}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="146" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="147" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="148" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="160" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="161">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C176875-C7BB-44C0-9BFE-6A37D0B4C6CF}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="146" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="147" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="150" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="47">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="150" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="47">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="162" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="48">
+        <v>0.53438082767110195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ED0F7A-8D89-4401-AB1F-E80EDE46C310}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="151" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="152" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="153" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="154">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="153" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="154">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="163" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="164">
+        <v>0.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42985FF2-21FB-4462-A238-35D6908AFC78}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="155" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="156" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="157" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="158">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="157" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="158">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="165" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="166">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C02643-0603-445E-8BD2-841894014CAF}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="155" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="156" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="157" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="158">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="157" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="158">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="165" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="166">
+        <v>3.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80122FA4-5F5F-4F49-8B3B-F85EC875B6DB}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="159" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="157" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="158">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="157" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="158">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="165" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="166">
+        <v>0.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB7BE41-F05A-4BA9-A86E-D3919FABEA54}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="159" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="157" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="158">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="157" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="158">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="165" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="166">
+        <v>1.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0D7E5C-CD82-4DB8-A226-3E1C788BA0DC}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3299,420 +3981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AEADEA-74C6-4228-B3CC-EA34A2C3EFBB}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="146" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="147" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="148" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="160" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="161">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C176875-C7BB-44C0-9BFE-6A37D0B4C6CF}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="146" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="147" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="47">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="150" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="47">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="162" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="48">
-        <v>0.53438082767110195</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ED0F7A-8D89-4401-AB1F-E80EDE46C310}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="151" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="152" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="154">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="154">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="163" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="164">
-        <v>0.33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42985FF2-21FB-4462-A238-35D6908AFC78}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="155" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="156" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="157" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="158">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="158">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="165" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="166">
-        <v>0.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C02643-0603-445E-8BD2-841894014CAF}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="155" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="156" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="157" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="158">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="158">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="165" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="166">
-        <v>3.22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80122FA4-5F5F-4F49-8B3B-F85EC875B6DB}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="159" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="157" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="158">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="158">
-        <v>4.16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="165" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="166">
-        <v>0.78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB7BE41-F05A-4BA9-A86E-D3919FABEA54}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="159" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="157" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="158">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="158">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="165" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="166">
-        <v>1.76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5CC43A-B92E-48D7-BDB3-3F2DA46B35B3}">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
@@ -3723,7 +3992,7 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
@@ -3862,7 +4131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF69D0FC-C70F-430B-9882-945A087A2D92}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3911,7 +4180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFC53F8-A679-4C96-A30B-3522B67D8CF1}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3965,7 +4234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A85E027-57F4-45A3-888B-4C0E11BBDC89}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4009,7 +4278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F8A809-1347-42CB-A460-105FB2B000F6}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4191,7 +4460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E58F52A-57D4-400C-9B2D-0CDF39E9349F}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4234,7 +4503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153D1DC6-FF6C-4D1F-9E23-B1795807F580}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4274,7 +4543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A75646C-6D5B-41D2-BD66-0AABE8C35A83}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4322,7 +4591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691EF25-02B9-4EAE-A04E-51FF0E4ADDCA}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4368,7 +4637,79 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F319BCD0-9FF0-4128-B77A-FE703C6CAEA8}">
+  <sheetPr>
+    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
+  </sheetPr>
+  <dimension ref="C3:M36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="37"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="38"/>
+      <c r="F21" s="38"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="39"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="39"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="39"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="39"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="39"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="39"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="39"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="39"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C31" s="39"/>
+      <c r="M31" s="23"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C32" s="39"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="39"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="39"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="39"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EADE56A-3552-4283-86E6-D2B76E77A8C0}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5013,79 +5354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F319BCD0-9FF0-4128-B77A-FE703C6CAEA8}">
-  <sheetPr>
-    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
-  </sheetPr>
-  <dimension ref="C3:M36"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="37"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="38"/>
-      <c r="F21" s="38"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="39"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="39"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="39"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="39"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="39"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="39"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="39"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C30" s="39"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="39"/>
-      <c r="M31" s="23"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="39"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="39"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="39"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="39"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="39"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B44EC57-024F-431A-B1C2-58810C4F9E47}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5341,7 +5610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F10C60C-760C-4F1B-AB9A-B14851122200}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5422,7 +5691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399EB22-0DA7-4F9B-9913-FB50F464ABD0}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6576,7 +6845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037676BC-0D9E-4EC2-B7DF-9077076036FD}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6873,7 +7142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B147A77C-3EC6-43F3-933A-7BFD421AB782}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7148,7 +7417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928AC5F8-3DBD-4182-95AF-F72C7FA4D2FF}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7388,7 +7657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A514516D-9002-4617-9A63-E1CA29CE5849}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7435,7 +7704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF881A9-CA5F-4FA3-8B67-FC3821E0B9D1}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7461,7 +7730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E548F62-97B3-424F-8681-D1975DE263A9}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7509,41 +7778,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BF6F83-9FD6-4F70-BC51-ABE04C1D3900}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFF715F-3E15-4648-BE2E-5DDD5729CBA6}">
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
-  <dimension ref="A1:BA12"/>
+  <dimension ref="A1:BB12"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7568,12 +7811,12 @@
     <col min="54" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>212</v>
       </c>
@@ -7593,7 +7836,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="51"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>225</v>
       </c>
@@ -7623,7 +7866,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>228</v>
       </c>
@@ -7647,7 +7890,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>232</v>
       </c>
@@ -7665,7 +7908,7 @@
       <c r="J5" s="58"/>
       <c r="K5" s="60"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>234</v>
       </c>
@@ -7689,7 +7932,7 @@
       <c r="J6" s="58"/>
       <c r="K6" s="60"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>237</v>
       </c>
@@ -7713,7 +7956,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="60"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>241</v>
       </c>
@@ -7755,7 +7998,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>282</v>
       </c>
@@ -7803,7 +8046,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>287</v>
       </c>
@@ -7845,47 +8088,75 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65" t="s">
+      <c r="H11" s="59"/>
+      <c r="I11" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="K11" s="63" t="s">
+      <c r="K11" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="AU11" s="1" t="s">
+      <c r="AT11" s="29"/>
+      <c r="AU11" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="BA11" s="1" t="s">
+      <c r="AV11" s="29"/>
+      <c r="AW11" s="29"/>
+      <c r="AX11" s="29"/>
+      <c r="AY11" s="29"/>
+      <c r="AZ11" s="29"/>
+      <c r="BA11" s="29" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>337</v>
+      </c>
+      <c r="H12" s="64"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
       <c r="AU12" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BA12" s="1" t="s">
+      <c r="BB12" s="1" t="s">
         <v>248</v>
       </c>
     </row>
@@ -7922,6 +8193,32 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BF6F83-9FD6-4F70-BC51-ABE04C1D3900}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BC2D47-F187-4A8D-891B-85F0F5A9A73D}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8039,7 +8336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05F6C2E-9295-44C7-B492-F6D27B8F0C30}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8102,7 +8399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A1AE0C-960A-4D78-B379-4A547CF947AD}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8159,7 +8456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E3F424-AF67-40EA-B112-0E5B2FC8462D}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8232,7 +8529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3F673B-ABE6-40C2-BA6B-F7AEA69D03F8}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8280,7 +8577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73E3B05-FEA6-4F0A-B0B4-606FC7BB514D}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8306,7 +8603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E11C5B2-5223-44CC-A665-57D3C240177A}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8332,7 +8629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ED8ED-0A77-4974-A7C2-D2B875DA1401}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8513,7 +8810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F615298C-1D1C-4004-91BA-05C3C07D8B7C}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8637,258 +8934,6 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE275C-BC38-44C0-8EFB-EA0A3ABCF1EE}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9010,6 +9055,258 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE275C-BC38-44C0-8EFB-EA0A3ABCF1EE}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90457C74-863B-4C67-B58B-571271FAEA0E}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -9107,7 +9404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37622F2B-1E4B-46C9-B210-3150CCBB5892}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -9188,7 +9485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A52059-0CB1-474F-ACFF-2997470BE1E9}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -9234,7 +9531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3279EAFB-7F04-4F45-A5F9-1ED3990BFA3C}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -9286,7 +9583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E25B558-6FEF-4903-8E54-DF70BDAE7730}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -9312,7 +9609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE95A628-62F8-4918-A6A4-F7E2D921F523}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -9338,7 +9635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DA0F54-4C9A-4187-8DE0-AF937830DA98}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -9364,7 +9661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EF732D-3FEB-41D2-95A0-AC0AA9510586}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -9903,7 +10200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FA210-6C83-4CC4-AF45-F41CDC53F769}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -10423,7 +10720,113 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FE18E-3C30-49FC-B6A0-0A6D3F02EBB0}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF4E1D-6CE0-4F02-8B9E-F2818C0A814C}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -13812,113 +14215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FE18E-3C30-49FC-B6A0-0A6D3F02EBB0}">
-  <dimension ref="A1:O15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68666333-AE69-4574-92B2-6BE3A00DF612}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -14604,7 +14901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162303BA-2B61-46C5-B9BD-62C717D4498F}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -17893,7 +18190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E20112-2123-4F65-86B0-35213ED82359}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -20541,7 +20838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781DC95A-3E5A-4F20-82A9-05C912F0EA7B}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -24596,7 +24893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -24657,7 +24954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -24711,7 +25008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -24773,7 +25070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C298BC7-9C6D-4971-BB78-61E60B2E007F}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -24800,7 +25097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC298B0-398A-4CF6-B3B6-5AB5075901E4}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -24824,1488 +25121,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
-  <sheetPr>
-    <tabColor rgb="FFD9C6FE"/>
-  </sheetPr>
-  <dimension ref="A1:BA15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of External Water Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of External Water Sourcing Availability [bbl/week]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="AW2" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="BA2" s="24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="C3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="D3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="E3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="F3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="G3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="H3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="I3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="J3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="K3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="L3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="M3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="N3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="O3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="P3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="Q3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="R3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="S3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="T3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="U3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="V3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="W3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="X3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="Y3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="Z3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AA3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AB3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AC3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AD3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AE3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AF3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AG3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AH3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AI3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AJ3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AK3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AL3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AM3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AN3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AO3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AP3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AQ3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AR3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AS3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AT3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AU3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AV3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AW3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AX3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AY3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AZ3" s="33">
-        <v>250000</v>
-      </c>
-      <c r="BA3" s="34">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="C4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="D4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="E4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="F4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="G4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="H4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="I4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="J4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="K4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="L4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="M4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="N4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="O4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="P4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="Q4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="R4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="S4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="T4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="U4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="V4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="W4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="X4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="Y4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="Z4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AA4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AB4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AC4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AD4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AE4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AF4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AG4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AH4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AI4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AJ4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AK4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AL4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AM4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AN4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AO4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AP4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AQ4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AR4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AS4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AT4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AU4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AV4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AW4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AX4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AY4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AZ4" s="33">
-        <v>150000</v>
-      </c>
-      <c r="BA4" s="34">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="C5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="D5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="E5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="F5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="G5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="H5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="I5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="J5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="K5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="L5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="M5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="N5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="O5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="P5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="Q5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="R5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="S5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="T5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="U5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="V5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="W5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="X5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="Y5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="Z5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AA5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AB5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AC5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AD5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AE5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AF5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AG5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AH5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AI5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AJ5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AK5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AL5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AM5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AN5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AO5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AP5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AQ5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AR5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AS5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AT5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AU5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AV5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AW5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AX5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AY5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AZ5" s="33">
-        <v>250000</v>
-      </c>
-      <c r="BA5" s="34">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="C6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="D6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="E6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="F6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="G6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="H6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="I6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="J6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="K6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="L6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="M6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="N6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="O6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="P6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="Q6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="R6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="S6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="T6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="U6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="V6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="W6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="X6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="Y6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="Z6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AA6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AB6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AC6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AD6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AE6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AF6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AG6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AH6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AI6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AJ6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AK6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AL6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AM6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AN6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AO6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AP6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AQ6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AR6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AS6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AT6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AU6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AV6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AW6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AX6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AY6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AZ6" s="33">
-        <v>150000</v>
-      </c>
-      <c r="BA6" s="34">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="C7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="D7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="E7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="F7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="G7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="H7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="I7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="J7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="K7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="L7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="M7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="N7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="O7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="P7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="Q7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="R7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="S7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="T7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="U7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="V7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="W7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="X7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="Y7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="Z7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AA7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AB7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AC7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AD7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AE7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AF7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AG7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AH7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AI7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AJ7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AK7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AL7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AM7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AN7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AO7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AP7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AQ7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AR7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AS7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AT7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AU7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AV7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AW7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AX7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AY7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AZ7" s="33">
-        <v>250000</v>
-      </c>
-      <c r="BA7" s="34">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="C8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="D8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="E8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="F8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="G8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="H8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="I8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="J8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="K8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="L8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="M8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="N8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="O8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="P8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="Q8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="R8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="S8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="T8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="U8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="V8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="W8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="X8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="Y8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="Z8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AA8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AB8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AC8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AD8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AE8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AF8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AG8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AH8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AI8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AJ8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AK8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AL8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AM8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AN8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AO8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AP8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AQ8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AR8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AS8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AT8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AU8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AV8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AW8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AX8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AY8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="AZ8" s="33">
-        <v>150000</v>
-      </c>
-      <c r="BA8" s="34">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="C9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="D9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="E9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="F9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="G9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="H9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="I9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="J9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="K9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="L9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="M9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="N9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="O9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="P9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="Q9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="R9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="S9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="T9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="U9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="V9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="W9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="X9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="Y9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="Z9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AA9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AB9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AC9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AD9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AE9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AF9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AG9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AH9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AI9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AJ9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AK9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AL9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AM9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AN9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AO9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AP9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AQ9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AR9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AS9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AT9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AU9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AV9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AW9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AX9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AY9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="AZ9" s="33">
-        <v>250000</v>
-      </c>
-      <c r="BA9" s="34">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="C10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="D10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="E10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="F10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="G10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="H10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="I10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="J10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="K10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="L10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="M10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="N10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="O10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="P10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="Q10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="R10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="S10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="T10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="U10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="V10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="W10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="X10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="Y10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="Z10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AA10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AB10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AC10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AD10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AE10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AF10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AG10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AH10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AI10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AJ10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AK10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AL10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AM10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AN10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AO10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AP10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AQ10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AR10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AS10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AT10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AU10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AV10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AW10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AX10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AY10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="AZ10" s="35">
-        <v>150000</v>
-      </c>
-      <c r="BA10" s="36">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="F15" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -26369,6 +25184,1488 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
+  <sheetPr>
+    <tabColor rgb="FFD9C6FE"/>
+  </sheetPr>
+  <dimension ref="A1:BA15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of External Water Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of External Water Sourcing Availability [bbl/week]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA2" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="C3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="D3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="E3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="F3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="G3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="H3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="I3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="J3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="K3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="L3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="M3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="N3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="O3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="P3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="Q3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="R3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="S3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="T3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="U3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="V3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="W3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="X3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="Y3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="Z3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AA3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AB3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AC3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AD3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AE3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AF3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AG3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AH3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AI3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AJ3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AK3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AL3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AM3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AN3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AO3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AP3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AQ3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AR3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AS3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AT3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AU3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AV3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AW3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AX3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AY3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AZ3" s="33">
+        <v>250000</v>
+      </c>
+      <c r="BA3" s="34">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="C4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="D4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="E4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="F4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="G4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="H4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="I4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="J4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="K4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="L4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="M4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="N4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="O4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="P4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="Q4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="R4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="S4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="T4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="U4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="V4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="W4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="X4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="Y4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="Z4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AA4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AB4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AC4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AD4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AE4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AF4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AG4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AH4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AI4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AJ4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AK4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AL4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AM4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AN4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AO4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AP4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AQ4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AR4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AS4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AT4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AU4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AV4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AW4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AX4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AY4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AZ4" s="33">
+        <v>150000</v>
+      </c>
+      <c r="BA4" s="34">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="C5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="D5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="E5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="F5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="G5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="H5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="I5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="J5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="K5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="L5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="M5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="N5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="O5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="P5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="Q5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="R5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="S5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="T5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="U5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="V5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="W5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="X5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="Y5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="Z5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AA5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AB5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AC5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AD5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AE5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AF5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AG5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AH5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AI5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AJ5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AK5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AL5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AM5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AN5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AO5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AP5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AQ5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AR5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AS5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AT5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AU5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AV5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AW5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AX5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AY5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AZ5" s="33">
+        <v>250000</v>
+      </c>
+      <c r="BA5" s="34">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="C6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="D6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="E6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="F6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="G6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="H6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="I6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="J6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="K6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="L6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="M6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="N6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="O6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="P6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="Q6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="R6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="S6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="T6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="U6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="V6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="W6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="X6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="Y6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="Z6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AA6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AB6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AC6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AD6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AE6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AF6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AG6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AH6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AI6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AJ6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AK6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AL6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AM6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AN6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AO6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AP6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AQ6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AR6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AS6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AT6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AU6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AV6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AW6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AX6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AY6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AZ6" s="33">
+        <v>150000</v>
+      </c>
+      <c r="BA6" s="34">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="C7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="D7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="E7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="F7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="G7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="H7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="I7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="J7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="K7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="L7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="M7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="N7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="O7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="P7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="Q7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="R7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="S7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="T7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="U7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="V7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="W7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="X7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="Y7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="Z7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AA7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AB7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AC7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AD7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AE7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AF7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AG7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AH7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AI7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AJ7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AK7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AL7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AM7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AN7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AO7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AP7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AQ7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AR7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AS7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AT7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AU7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AV7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AW7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AX7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AY7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AZ7" s="33">
+        <v>250000</v>
+      </c>
+      <c r="BA7" s="34">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="C8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="D8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="E8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="F8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="G8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="H8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="I8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="J8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="K8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="L8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="M8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="N8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="O8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="P8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="Q8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="R8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="S8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="T8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="U8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="V8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="W8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="X8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="Y8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="Z8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AA8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AB8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AC8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AD8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AE8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AF8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AG8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AH8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AI8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AJ8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AK8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AL8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AM8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AN8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AO8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AP8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AQ8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AR8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AS8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AT8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AU8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AV8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AW8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AX8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AY8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="AZ8" s="33">
+        <v>150000</v>
+      </c>
+      <c r="BA8" s="34">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="C9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="D9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="E9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="F9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="G9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="H9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="I9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="J9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="K9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="L9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="M9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="N9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="O9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="P9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="Q9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="R9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="S9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="T9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="U9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="V9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="W9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="X9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="Y9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="Z9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AA9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AB9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AC9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AD9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AE9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AF9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AG9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AH9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AI9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AJ9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AK9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AL9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AM9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AN9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AO9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AP9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AQ9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AR9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AS9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AT9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AU9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AV9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AW9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AX9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AY9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="AZ9" s="33">
+        <v>250000</v>
+      </c>
+      <c r="BA9" s="34">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="C10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="D10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="E10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="F10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="G10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="H10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="I10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="J10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="K10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="L10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="M10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="N10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="O10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="P10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="Q10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="R10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="S10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="T10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="U10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="V10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="W10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="X10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="Y10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="Z10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AA10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AB10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AC10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AD10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AE10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AF10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AG10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AH10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AI10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AJ10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AK10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AL10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AM10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AN10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AO10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AP10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AQ10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AR10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AS10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AT10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AU10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AV10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AW10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AX10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AY10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="AZ10" s="35">
+        <v>150000</v>
+      </c>
+      <c r="BA10" s="36">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="F15" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -26438,7 +26735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -26508,7 +26805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D80780D-32E5-452A-A6C3-3B8E431097FA}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -26552,7 +26849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F424B69F-B42E-4A8C-B24F-D4CE4D83DFA9}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -27236,7 +27533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27298,7 +27595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27403,7 +27700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -27472,7 +27769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -30440,7 +30737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -30534,259 +30831,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", "hour","]")</f>
-        <v>Table of Trucking Hourly Cost [USD/hour]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="28">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="28">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="28">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="28">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="28">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="28">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="28">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="28">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="28">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="28">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="28">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="90">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="28">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="28">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="90">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="28">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="28">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="28">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="28">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="28">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="28">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="28">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="8">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -30842,6 +30886,259 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", "hour","]")</f>
+        <v>Table of Trucking Hourly Cost [USD/hour]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="28">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="28">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="28">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="28">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="28">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="28">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="28">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="90">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="28">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="90">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="28">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="28">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="28">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="28">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="28">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="28">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="28">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="8">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -31149,7 +31446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -31211,7 +31508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -31272,7 +31569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -31325,7 +31622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -31370,7 +31667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -31471,7 +31768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -31534,7 +31831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -31578,7 +31875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBA4E88-E142-4CAA-9941-4EFBE822A9B8}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -38697,66 +38994,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB463F82-A1C0-450F-A6BA-E327D67D2CCA}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),")]")</f>
-        <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/week)]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="104" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="28">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="105" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="8">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABFF4F0-1521-4984-985F-ECB7FE3DE71E}">
   <sheetPr>
@@ -38837,6 +39074,66 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB463F82-A1C0-450F-A6BA-E327D67D2CCA}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),")]")</f>
+        <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/week)]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="8">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDE49D4-5953-41A3-9445-43C5CEE52016}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -38881,7 +39178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451B8273-C388-463D-8494-0D66D9ED9BA0}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -38926,7 +39223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B45C9D-7A15-425D-8487-B88B27280274}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -39030,7 +39327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A32EEB0-CDB8-48FA-AC3A-32F164C0112D}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -39128,7 +39425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CCDB1D-7C9B-45C0-BC80-50ECEB2FE439}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -39179,7 +39476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805001D5-70DF-464C-8122-7D31EBC77774}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -39246,7 +39543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A617E75-F8DA-4C29-9C5C-5A80A1285E97}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -39257,7 +39554,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -39273,7 +39570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9751595C-A60B-44E7-B403-F81EBA7A1A29}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -39300,7 +39597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D5E840-A652-4014-8BA7-131503FECE29}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -39367,7 +39664,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26AD4E3-173F-4430-B8BC-8CF639E30EC8}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97A568C-E2FB-4ADF-84D0-ABF3E0446F9A}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -39440,43 +39773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26AD4E3-173F-4430-B8BC-8CF639E30EC8}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB07E06-ED03-4572-9B3E-05DAA3F2CF42}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -39527,7 +39824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA80EA2-BCEB-4341-81C8-1B6F14B6815E}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -39538,7 +39835,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
@@ -39654,7 +39951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23C97C0-70AD-4A71-BE9C-0931EDC97CA5}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -39904,7 +40201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485401B3-8B00-41A4-BDC3-322B62874F13}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -39966,7 +40263,261 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA74B3B1-7373-4341-B337-38F6EA5B9339}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Air Emissions Coefficients ")</f>
+        <v xml:space="preserve">Table of Air Emissions Coefficients </v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="str">
+        <f>_xlfn.CONCAT("Trucking [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/hour]")</f>
+        <v>Trucking [g/hour]</v>
+      </c>
+      <c r="B3" s="118">
+        <v>2035000</v>
+      </c>
+      <c r="C3" s="118">
+        <v>35.75</v>
+      </c>
+      <c r="D3" s="118">
+        <v>12649.999999999998</v>
+      </c>
+      <c r="E3" s="118">
+        <v>770.00000000000011</v>
+      </c>
+      <c r="F3" s="149">
+        <v>120.99999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="str">
+        <f>_xlfn.CONCAT("Pipeline Operations [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/(", VLOOKUP("volume", Units!A2:B12, 2, FALSE), "*", VLOOKUP("distance", Units!A2:B12, 2, FALSE), ")]")</f>
+        <v>Pipeline Operations [g/(bbl*mile)]</v>
+      </c>
+      <c r="B4" s="118">
+        <v>22</v>
+      </c>
+      <c r="C4" s="118">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D4" s="118">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E4" s="118">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="F4" s="149">
+        <v>8.5999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="str">
+        <f>_xlfn.CONCAT("Pipeline Installation [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/", VLOOKUP("distance", Units!A2:B12, 2, FALSE), "]")</f>
+        <v>Pipeline Installation [g/mile]</v>
+      </c>
+      <c r="B5" s="118">
+        <v>310000000</v>
+      </c>
+      <c r="C5" s="118">
+        <v>2800</v>
+      </c>
+      <c r="D5" s="118">
+        <v>190000</v>
+      </c>
+      <c r="E5" s="118">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="149">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="str">
+        <f>_xlfn.CONCAT("Disposal [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/", VLOOKUP("volume", Units!A2:B12, 2, FALSE), "]")</f>
+        <v>Disposal [g/bbl]</v>
+      </c>
+      <c r="B6" s="118">
+        <v>970</v>
+      </c>
+      <c r="C6" s="118">
+        <v>0.13</v>
+      </c>
+      <c r="D6" s="118">
+        <v>9.5</v>
+      </c>
+      <c r="E6" s="118">
+        <v>2.8</v>
+      </c>
+      <c r="F6" s="149">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="str">
+        <f>_xlfn.CONCAT("Storage [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/(", VLOOKUP("volume", Units!A2:B12, 2, FALSE), "*", VLOOKUP("decision period", Units!A2:B12, 2, FALSE), ")]")</f>
+        <v>Storage [g/(bbl*week)]</v>
+      </c>
+      <c r="B7" s="119">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="119">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D7" s="119">
+        <v>2</v>
+      </c>
+      <c r="E7" s="119">
+        <v>0.65</v>
+      </c>
+      <c r="F7" s="161">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB25931D-1922-44C1-9657-5DC359AF56DE}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT("Table of Air Emissions Coefficients for Treatment Technologies [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/", VLOOKUP("volume", Units!A2:B12, 2, FALSE), "]")</f>
+        <v>Table of Air Emissions Coefficients for Treatment Technologies [g/bbl]</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="167" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="148" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="118">
+        <v>9600</v>
+      </c>
+      <c r="C3" s="118">
+        <v>1.45</v>
+      </c>
+      <c r="D3" s="118">
+        <v>12.8</v>
+      </c>
+      <c r="E3" s="118">
+        <v>13.5</v>
+      </c>
+      <c r="F3" s="149">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="160" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="119">
+        <v>9600</v>
+      </c>
+      <c r="C4" s="119">
+        <v>1.45</v>
+      </c>
+      <c r="D4" s="119">
+        <v>12.8</v>
+      </c>
+      <c r="E4" s="119">
+        <v>13.5</v>
+      </c>
+      <c r="F4" s="161">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C5F8D1-3580-447F-A30D-0D2BFC2160E3}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -40050,7 +40601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601FBCBB-D890-4E0B-8B55-2105D6D6F963}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -40147,7 +40698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F7DDE5-FDC2-4C70-890C-06DC683CFAEE}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -40202,175 +40753,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B41EC2-F090-42D1-AFF8-3056037AC65C}">
-  <sheetPr>
-    <tabColor theme="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Storage Expansion Lead Time [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
-        <v>Table of Storage Expansion Lead Time [weeks]</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="B4" s="36">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C948FE1C-5222-430C-A488-5C062B27C71E}">
-  <sheetPr>
-    <tabColor theme="0"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s/",VLOOKUP("distance", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks/mile]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="127">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2C55AF-2723-4AFC-8D30-4EEF7BD23296}">
-  <sheetPr>
-    <tabColor theme="0"/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Capacity Based [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
-        <v>Table of Pipeline Expansion Lead Time - Capacity Based [weeks]</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="128" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="128" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="128" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="130" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="131">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>